--- a/00-4-all-time/trouble-shooting/trouble-shooting-log/Trouble Shooting Log.xlsx
+++ b/00-4-all-time/trouble-shooting/trouble-shooting-log/Trouble Shooting Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-a-A-October\00-weeks\00-4-all-time\trouble-shooting\trouble-shooting-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E2619-B49E-4B9E-AAF6-6E1362D31AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A38BC-7C13-422F-BCA9-DF7000896A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{DA22E964-0552-406A-AEE5-17242EF76652}"/>
+    <workbookView minimized="1" xWindow="-23250" yWindow="2355" windowWidth="21600" windowHeight="11145" activeTab="1" xr2:uid="{DA22E964-0552-406A-AEE5-17242EF76652}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Issue #</t>
   </si>
@@ -104,12 +104,54 @@
   <si>
     <t>git filter-branch --index-filter 'git rm -r --cached --ignore-unmatch &lt;file/dir&gt;' HEAD</t>
   </si>
+  <si>
+    <t xml:space="preserve">Input Output error </t>
+  </si>
+  <si>
+    <t>cannot access '/mnt/c': Input/output error</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wsl.exe --shutdown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         then        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get-Service LxssManager | Restart-Service</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +189,15 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -619,7 +670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,13 +678,2201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D829AC-B71C-4433-8E10-D198004D3FF2}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:H218"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <v>51</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <v>55</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <v>56</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <v>57</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3">
+        <v>58</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3">
+        <v>60</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
+        <v>61</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <v>62</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3">
+        <v>63</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>64</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>65</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3">
+        <v>66</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3">
+        <v>68</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
+        <v>69</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3">
+        <v>70</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3">
+        <v>71</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3">
+        <v>72</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3">
+        <v>73</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3">
+        <v>74</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3">
+        <v>75</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3">
+        <v>76</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3">
+        <v>77</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3">
+        <v>78</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3">
+        <v>79</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3">
+        <v>80</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3">
+        <v>81</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <v>82</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3">
+        <v>83</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3">
+        <v>84</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3">
+        <v>85</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3">
+        <v>86</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3">
+        <v>87</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3">
+        <v>88</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3">
+        <v>89</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3">
+        <v>90</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3">
+        <v>91</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3">
+        <v>92</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <v>93</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3">
+        <v>94</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3">
+        <v>95</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <v>96</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3">
+        <v>97</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3">
+        <v>98</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3">
+        <v>99</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <v>100</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <v>101</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3">
+        <v>102</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <v>103</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3">
+        <v>104</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3">
+        <v>105</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3">
+        <v>106</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3">
+        <v>107</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3">
+        <v>108</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3">
+        <v>109</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3">
+        <v>110</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3">
+        <v>111</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3">
+        <v>112</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3">
+        <v>113</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3">
+        <v>114</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3">
+        <v>115</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3">
+        <v>116</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3">
+        <v>117</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3">
+        <v>118</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3">
+        <v>119</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3">
+        <v>120</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3">
+        <v>121</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3">
+        <v>122</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3">
+        <v>123</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3">
+        <v>124</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3">
+        <v>125</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3">
+        <v>126</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3">
+        <v>127</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3">
+        <v>128</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3">
+        <v>129</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3">
+        <v>130</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3">
+        <v>131</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3">
+        <v>132</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3">
+        <v>133</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3">
+        <v>134</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <v>135</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3">
+        <v>136</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3">
+        <v>137</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3">
+        <v>138</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3">
+        <v>139</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3">
+        <v>140</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3">
+        <v>141</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3">
+        <v>142</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3">
+        <v>143</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3">
+        <v>144</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3">
+        <v>145</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3">
+        <v>146</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3">
+        <v>147</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3">
+        <v>148</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3">
+        <v>149</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3">
+        <v>150</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3">
+        <v>151</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3">
+        <v>152</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3">
+        <v>153</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3">
+        <v>154</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3">
+        <v>155</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3">
+        <v>156</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3">
+        <v>157</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3">
+        <v>158</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3">
+        <v>159</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3">
+        <v>160</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3">
+        <v>161</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3">
+        <v>162</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3">
+        <v>163</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3">
+        <v>164</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3">
+        <v>165</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3">
+        <v>166</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3">
+        <v>167</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3">
+        <v>168</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3">
+        <v>169</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3">
+        <v>170</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3">
+        <v>171</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3">
+        <v>172</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3">
+        <v>173</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3">
+        <v>174</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3">
+        <v>175</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3">
+        <v>176</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3">
+        <v>177</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3">
+        <v>178</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3">
+        <v>179</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3">
+        <v>180</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3">
+        <v>181</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3">
+        <v>182</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3">
+        <v>183</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3">
+        <v>184</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3">
+        <v>185</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3">
+        <v>186</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3">
+        <v>187</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3">
+        <v>188</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3">
+        <v>189</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3">
+        <v>190</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3">
+        <v>191</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3">
+        <v>192</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3">
+        <v>193</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3">
+        <v>194</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3">
+        <v>195</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3">
+        <v>196</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3">
+        <v>197</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3">
+        <v>198</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3">
+        <v>199</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3">
+        <v>200</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3">
+        <v>201</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3">
+        <v>202</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3">
+        <v>203</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3">
+        <v>204</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3">
+        <v>205</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3">
+        <v>206</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3">
+        <v>207</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3">
+        <v>208</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3">
+        <v>209</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3">
+        <v>210</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3">
+        <v>211</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3">
+        <v>212</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3">
+        <v>213</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3">
+        <v>214</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3">
+        <v>215</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -643,7 +2882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -654,19 +2893,19 @@
   <dimension ref="B1:AF625"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G216"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="155.5546875" customWidth="1"/>
-    <col min="5" max="5" width="80.109375" customWidth="1"/>
-    <col min="6" max="6" width="97.88671875" customWidth="1"/>
-    <col min="7" max="7" width="71.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="155.5703125" customWidth="1"/>
+    <col min="5" max="5" width="80.140625" customWidth="1"/>
+    <col min="6" max="6" width="97.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:32" ht="79.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -711,7 +2950,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="2:32" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -748,7 +2987,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="2:32" ht="79.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="79.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -785,7 +3024,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="2:32" ht="235.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="235.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -826,7 +3065,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -864,7 +3103,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -899,7 +3138,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -934,7 +3173,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -969,7 +3208,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -1004,7 +3243,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -1039,7 +3278,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -1074,7 +3313,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -1109,7 +3348,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -1144,7 +3383,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -1179,7 +3418,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>14</v>
       </c>
@@ -1214,7 +3453,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -1249,7 +3488,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>16</v>
       </c>
@@ -1284,7 +3523,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>17</v>
       </c>
@@ -1319,7 +3558,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>18</v>
       </c>
@@ -1354,7 +3593,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>19</v>
       </c>
@@ -1389,7 +3628,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>20</v>
       </c>
@@ -1424,7 +3663,7 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>21</v>
       </c>
@@ -1459,7 +3698,7 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>22</v>
       </c>
@@ -1494,7 +3733,7 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>23</v>
       </c>
@@ -1529,7 +3768,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>24</v>
       </c>
@@ -1564,7 +3803,7 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>25</v>
       </c>
@@ -1599,7 +3838,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>26</v>
       </c>
@@ -1634,7 +3873,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>27</v>
       </c>
@@ -1669,7 +3908,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>28</v>
       </c>
@@ -1704,7 +3943,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>29</v>
       </c>
@@ -1739,7 +3978,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>30</v>
       </c>
@@ -1774,7 +4013,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>31</v>
       </c>
@@ -1809,7 +4048,7 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>32</v>
       </c>
@@ -1844,7 +4083,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>33</v>
       </c>
@@ -1879,7 +4118,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>34</v>
       </c>
@@ -1914,7 +4153,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>35</v>
       </c>
@@ -1949,7 +4188,7 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>36</v>
       </c>
@@ -1984,7 +4223,7 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>37</v>
       </c>
@@ -2019,7 +4258,7 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
     </row>
-    <row r="39" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>38</v>
       </c>
@@ -2054,7 +4293,7 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
     </row>
-    <row r="40" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>39</v>
       </c>
@@ -2089,7 +4328,7 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
     </row>
-    <row r="41" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>40</v>
       </c>
@@ -2124,7 +4363,7 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
     </row>
-    <row r="42" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>41</v>
       </c>
@@ -2159,7 +4398,7 @@
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
     </row>
-    <row r="43" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>42</v>
       </c>
@@ -2194,7 +4433,7 @@
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
     </row>
-    <row r="44" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>43</v>
       </c>
@@ -2229,7 +4468,7 @@
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
     </row>
-    <row r="45" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>44</v>
       </c>
@@ -2264,7 +4503,7 @@
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
     </row>
-    <row r="46" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>45</v>
       </c>
@@ -2299,7 +4538,7 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
     </row>
-    <row r="47" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>46</v>
       </c>
@@ -2334,7 +4573,7 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
     </row>
-    <row r="48" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>47</v>
       </c>
@@ -2369,7 +4608,7 @@
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
     </row>
-    <row r="49" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>48</v>
       </c>
@@ -2404,7 +4643,7 @@
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
     </row>
-    <row r="50" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>49</v>
       </c>
@@ -2439,7 +4678,7 @@
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
     </row>
-    <row r="51" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>50</v>
       </c>
@@ -2474,7 +4713,7 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
     </row>
-    <row r="52" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>51</v>
       </c>
@@ -2509,7 +4748,7 @@
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
     </row>
-    <row r="53" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>52</v>
       </c>
@@ -2544,7 +4783,7 @@
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
     </row>
-    <row r="54" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>53</v>
       </c>
@@ -2579,7 +4818,7 @@
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
     </row>
-    <row r="55" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>54</v>
       </c>
@@ -2614,7 +4853,7 @@
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
     </row>
-    <row r="56" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>55</v>
       </c>
@@ -2649,7 +4888,7 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
     </row>
-    <row r="57" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>56</v>
       </c>
@@ -2684,7 +4923,7 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
     </row>
-    <row r="58" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>57</v>
       </c>
@@ -2719,7 +4958,7 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
     </row>
-    <row r="59" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>58</v>
       </c>
@@ -2754,7 +4993,7 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
     </row>
-    <row r="60" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>59</v>
       </c>
@@ -2789,7 +5028,7 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
     </row>
-    <row r="61" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>60</v>
       </c>
@@ -2824,7 +5063,7 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
     </row>
-    <row r="62" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>61</v>
       </c>
@@ -2859,7 +5098,7 @@
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
     </row>
-    <row r="63" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>62</v>
       </c>
@@ -2894,7 +5133,7 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
     </row>
-    <row r="64" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>63</v>
       </c>
@@ -2929,7 +5168,7 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
     </row>
-    <row r="65" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>64</v>
       </c>
@@ -2964,7 +5203,7 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
     </row>
-    <row r="66" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>65</v>
       </c>
@@ -2999,7 +5238,7 @@
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
     </row>
-    <row r="67" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>66</v>
       </c>
@@ -3034,7 +5273,7 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
     </row>
-    <row r="68" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>67</v>
       </c>
@@ -3069,7 +5308,7 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
     </row>
-    <row r="69" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>68</v>
       </c>
@@ -3104,7 +5343,7 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
     </row>
-    <row r="70" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>69</v>
       </c>
@@ -3139,7 +5378,7 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
     </row>
-    <row r="71" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>70</v>
       </c>
@@ -3174,7 +5413,7 @@
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
     </row>
-    <row r="72" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>71</v>
       </c>
@@ -3209,7 +5448,7 @@
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
     </row>
-    <row r="73" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>72</v>
       </c>
@@ -3244,7 +5483,7 @@
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
     </row>
-    <row r="74" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>73</v>
       </c>
@@ -3279,7 +5518,7 @@
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
     </row>
-    <row r="75" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>74</v>
       </c>
@@ -3314,7 +5553,7 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
     </row>
-    <row r="76" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>75</v>
       </c>
@@ -3349,7 +5588,7 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
     </row>
-    <row r="77" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>76</v>
       </c>
@@ -3384,7 +5623,7 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
     </row>
-    <row r="78" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>77</v>
       </c>
@@ -3419,7 +5658,7 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
     </row>
-    <row r="79" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>78</v>
       </c>
@@ -3454,7 +5693,7 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
     </row>
-    <row r="80" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>79</v>
       </c>
@@ -3489,7 +5728,7 @@
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
     </row>
-    <row r="81" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>80</v>
       </c>
@@ -3524,7 +5763,7 @@
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
     </row>
-    <row r="82" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>81</v>
       </c>
@@ -3559,7 +5798,7 @@
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
     </row>
-    <row r="83" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>82</v>
       </c>
@@ -3594,7 +5833,7 @@
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
     </row>
-    <row r="84" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>83</v>
       </c>
@@ -3629,7 +5868,7 @@
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
     </row>
-    <row r="85" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>84</v>
       </c>
@@ -3664,7 +5903,7 @@
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
     </row>
-    <row r="86" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>85</v>
       </c>
@@ -3699,7 +5938,7 @@
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
     </row>
-    <row r="87" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>86</v>
       </c>
@@ -3734,7 +5973,7 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
     </row>
-    <row r="88" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>87</v>
       </c>
@@ -3769,7 +6008,7 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
     </row>
-    <row r="89" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>88</v>
       </c>
@@ -3804,7 +6043,7 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
     </row>
-    <row r="90" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>89</v>
       </c>
@@ -3839,7 +6078,7 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
     </row>
-    <row r="91" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>90</v>
       </c>
@@ -3874,7 +6113,7 @@
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>91</v>
       </c>
@@ -3909,7 +6148,7 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>92</v>
       </c>
@@ -3944,7 +6183,7 @@
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
     </row>
-    <row r="94" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>93</v>
       </c>
@@ -3979,7 +6218,7 @@
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
     </row>
-    <row r="95" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>94</v>
       </c>
@@ -4014,7 +6253,7 @@
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
     </row>
-    <row r="96" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>95</v>
       </c>
@@ -4049,7 +6288,7 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
     </row>
-    <row r="97" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>96</v>
       </c>
@@ -4084,7 +6323,7 @@
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
     </row>
-    <row r="98" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>97</v>
       </c>
@@ -4119,7 +6358,7 @@
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
     </row>
-    <row r="99" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>98</v>
       </c>
@@ -4154,7 +6393,7 @@
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
     </row>
-    <row r="100" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>99</v>
       </c>
@@ -4189,7 +6428,7 @@
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
     </row>
-    <row r="101" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>100</v>
       </c>
@@ -4224,7 +6463,7 @@
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
     </row>
-    <row r="102" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>101</v>
       </c>
@@ -4259,7 +6498,7 @@
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
     </row>
-    <row r="103" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>102</v>
       </c>
@@ -4294,7 +6533,7 @@
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
     </row>
-    <row r="104" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>103</v>
       </c>
@@ -4329,7 +6568,7 @@
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
     </row>
-    <row r="105" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>104</v>
       </c>
@@ -4364,7 +6603,7 @@
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
     </row>
-    <row r="106" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>105</v>
       </c>
@@ -4399,7 +6638,7 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
     </row>
-    <row r="107" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>106</v>
       </c>
@@ -4434,7 +6673,7 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
     </row>
-    <row r="108" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>107</v>
       </c>
@@ -4469,7 +6708,7 @@
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
     </row>
-    <row r="109" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>108</v>
       </c>
@@ -4504,7 +6743,7 @@
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
     </row>
-    <row r="110" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>109</v>
       </c>
@@ -4539,7 +6778,7 @@
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
     </row>
-    <row r="111" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>110</v>
       </c>
@@ -4574,7 +6813,7 @@
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
     </row>
-    <row r="112" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>111</v>
       </c>
@@ -4609,7 +6848,7 @@
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
     </row>
-    <row r="113" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>112</v>
       </c>
@@ -4644,7 +6883,7 @@
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
     </row>
-    <row r="114" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>113</v>
       </c>
@@ -4679,7 +6918,7 @@
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
     </row>
-    <row r="115" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>114</v>
       </c>
@@ -4714,7 +6953,7 @@
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
     </row>
-    <row r="116" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>115</v>
       </c>
@@ -4749,7 +6988,7 @@
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
     </row>
-    <row r="117" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>116</v>
       </c>
@@ -4784,7 +7023,7 @@
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
     </row>
-    <row r="118" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>117</v>
       </c>
@@ -4819,7 +7058,7 @@
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
     </row>
-    <row r="119" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>118</v>
       </c>
@@ -4854,7 +7093,7 @@
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
     </row>
-    <row r="120" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>119</v>
       </c>
@@ -4889,7 +7128,7 @@
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
     </row>
-    <row r="121" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>120</v>
       </c>
@@ -4924,7 +7163,7 @@
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
     </row>
-    <row r="122" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>121</v>
       </c>
@@ -4959,7 +7198,7 @@
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
     </row>
-    <row r="123" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>122</v>
       </c>
@@ -4994,7 +7233,7 @@
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
     </row>
-    <row r="124" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>123</v>
       </c>
@@ -5029,7 +7268,7 @@
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
     </row>
-    <row r="125" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>124</v>
       </c>
@@ -5064,7 +7303,7 @@
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
     </row>
-    <row r="126" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>125</v>
       </c>
@@ -5099,7 +7338,7 @@
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
     </row>
-    <row r="127" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>126</v>
       </c>
@@ -5134,7 +7373,7 @@
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
     </row>
-    <row r="128" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>127</v>
       </c>
@@ -5169,7 +7408,7 @@
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
     </row>
-    <row r="129" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>128</v>
       </c>
@@ -5204,7 +7443,7 @@
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
     </row>
-    <row r="130" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>129</v>
       </c>
@@ -5239,7 +7478,7 @@
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
     </row>
-    <row r="131" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>130</v>
       </c>
@@ -5274,7 +7513,7 @@
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
     </row>
-    <row r="132" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>131</v>
       </c>
@@ -5309,7 +7548,7 @@
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
     </row>
-    <row r="133" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>132</v>
       </c>
@@ -5344,7 +7583,7 @@
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
     </row>
-    <row r="134" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>133</v>
       </c>
@@ -5379,7 +7618,7 @@
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
     </row>
-    <row r="135" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>134</v>
       </c>
@@ -5414,7 +7653,7 @@
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
     </row>
-    <row r="136" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>135</v>
       </c>
@@ -5449,7 +7688,7 @@
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
     </row>
-    <row r="137" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>136</v>
       </c>
@@ -5484,7 +7723,7 @@
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
     </row>
-    <row r="138" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>137</v>
       </c>
@@ -5519,7 +7758,7 @@
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
     </row>
-    <row r="139" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>138</v>
       </c>
@@ -5554,7 +7793,7 @@
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
     </row>
-    <row r="140" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>139</v>
       </c>
@@ -5589,7 +7828,7 @@
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
     </row>
-    <row r="141" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>140</v>
       </c>
@@ -5624,7 +7863,7 @@
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
     </row>
-    <row r="142" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>141</v>
       </c>
@@ -5659,7 +7898,7 @@
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
     </row>
-    <row r="143" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>142</v>
       </c>
@@ -5694,7 +7933,7 @@
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
     </row>
-    <row r="144" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>143</v>
       </c>
@@ -5729,7 +7968,7 @@
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
     </row>
-    <row r="145" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>144</v>
       </c>
@@ -5764,7 +8003,7 @@
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
     </row>
-    <row r="146" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>145</v>
       </c>
@@ -5799,7 +8038,7 @@
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
     </row>
-    <row r="147" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>146</v>
       </c>
@@ -5834,7 +8073,7 @@
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
     </row>
-    <row r="148" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>147</v>
       </c>
@@ -5869,7 +8108,7 @@
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
     </row>
-    <row r="149" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>148</v>
       </c>
@@ -5904,7 +8143,7 @@
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
     </row>
-    <row r="150" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>149</v>
       </c>
@@ -5939,7 +8178,7 @@
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
     </row>
-    <row r="151" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>150</v>
       </c>
@@ -5974,7 +8213,7 @@
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
     </row>
-    <row r="152" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>151</v>
       </c>
@@ -6009,7 +8248,7 @@
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
     </row>
-    <row r="153" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>152</v>
       </c>
@@ -6044,7 +8283,7 @@
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
     </row>
-    <row r="154" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>153</v>
       </c>
@@ -6079,7 +8318,7 @@
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
     </row>
-    <row r="155" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>154</v>
       </c>
@@ -6114,7 +8353,7 @@
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
     </row>
-    <row r="156" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>155</v>
       </c>
@@ -6149,7 +8388,7 @@
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
     </row>
-    <row r="157" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>156</v>
       </c>
@@ -6184,7 +8423,7 @@
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
     </row>
-    <row r="158" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>157</v>
       </c>
@@ -6219,7 +8458,7 @@
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
     </row>
-    <row r="159" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>158</v>
       </c>
@@ -6254,7 +8493,7 @@
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
     </row>
-    <row r="160" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>159</v>
       </c>
@@ -6289,7 +8528,7 @@
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
     </row>
-    <row r="161" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>160</v>
       </c>
@@ -6324,7 +8563,7 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
     </row>
-    <row r="162" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>161</v>
       </c>
@@ -6359,7 +8598,7 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
     </row>
-    <row r="163" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>162</v>
       </c>
@@ -6394,7 +8633,7 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
     </row>
-    <row r="164" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>163</v>
       </c>
@@ -6429,7 +8668,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
     </row>
-    <row r="165" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>164</v>
       </c>
@@ -6464,7 +8703,7 @@
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
     </row>
-    <row r="166" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>165</v>
       </c>
@@ -6499,7 +8738,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
     </row>
-    <row r="167" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>166</v>
       </c>
@@ -6534,7 +8773,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
     </row>
-    <row r="168" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>167</v>
       </c>
@@ -6569,7 +8808,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
     </row>
-    <row r="169" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>168</v>
       </c>
@@ -6604,7 +8843,7 @@
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
     </row>
-    <row r="170" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>169</v>
       </c>
@@ -6639,7 +8878,7 @@
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
     </row>
-    <row r="171" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>170</v>
       </c>
@@ -6674,7 +8913,7 @@
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
     </row>
-    <row r="172" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>171</v>
       </c>
@@ -6709,7 +8948,7 @@
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
     </row>
-    <row r="173" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>172</v>
       </c>
@@ -6744,7 +8983,7 @@
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
     </row>
-    <row r="174" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>173</v>
       </c>
@@ -6779,7 +9018,7 @@
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
     </row>
-    <row r="175" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>174</v>
       </c>
@@ -6814,7 +9053,7 @@
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
     </row>
-    <row r="176" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>175</v>
       </c>
@@ -6849,7 +9088,7 @@
       <c r="AE176" s="1"/>
       <c r="AF176" s="1"/>
     </row>
-    <row r="177" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>176</v>
       </c>
@@ -6884,7 +9123,7 @@
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
     </row>
-    <row r="178" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>177</v>
       </c>
@@ -6919,7 +9158,7 @@
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
     </row>
-    <row r="179" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>178</v>
       </c>
@@ -6954,7 +9193,7 @@
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
     </row>
-    <row r="180" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>179</v>
       </c>
@@ -6989,7 +9228,7 @@
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
     </row>
-    <row r="181" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>180</v>
       </c>
@@ -7024,7 +9263,7 @@
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
     </row>
-    <row r="182" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>181</v>
       </c>
@@ -7059,7 +9298,7 @@
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
     </row>
-    <row r="183" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>182</v>
       </c>
@@ -7094,7 +9333,7 @@
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
     </row>
-    <row r="184" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>183</v>
       </c>
@@ -7129,7 +9368,7 @@
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
     </row>
-    <row r="185" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>184</v>
       </c>
@@ -7164,7 +9403,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
     </row>
-    <row r="186" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>185</v>
       </c>
@@ -7199,7 +9438,7 @@
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
     </row>
-    <row r="187" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>186</v>
       </c>
@@ -7234,7 +9473,7 @@
       <c r="AE187" s="1"/>
       <c r="AF187" s="1"/>
     </row>
-    <row r="188" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>187</v>
       </c>
@@ -7269,7 +9508,7 @@
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
     </row>
-    <row r="189" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>188</v>
       </c>
@@ -7304,7 +9543,7 @@
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
     </row>
-    <row r="190" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>189</v>
       </c>
@@ -7339,7 +9578,7 @@
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
     </row>
-    <row r="191" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>190</v>
       </c>
@@ -7374,7 +9613,7 @@
       <c r="AE191" s="1"/>
       <c r="AF191" s="1"/>
     </row>
-    <row r="192" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>191</v>
       </c>
@@ -7409,7 +9648,7 @@
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
     </row>
-    <row r="193" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>192</v>
       </c>
@@ -7444,7 +9683,7 @@
       <c r="AE193" s="1"/>
       <c r="AF193" s="1"/>
     </row>
-    <row r="194" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>193</v>
       </c>
@@ -7479,7 +9718,7 @@
       <c r="AE194" s="1"/>
       <c r="AF194" s="1"/>
     </row>
-    <row r="195" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>194</v>
       </c>
@@ -7514,7 +9753,7 @@
       <c r="AE195" s="1"/>
       <c r="AF195" s="1"/>
     </row>
-    <row r="196" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>195</v>
       </c>
@@ -7549,7 +9788,7 @@
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
     </row>
-    <row r="197" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>196</v>
       </c>
@@ -7584,7 +9823,7 @@
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
     </row>
-    <row r="198" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>197</v>
       </c>
@@ -7619,7 +9858,7 @@
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
     </row>
-    <row r="199" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>198</v>
       </c>
@@ -7654,7 +9893,7 @@
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
     </row>
-    <row r="200" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>199</v>
       </c>
@@ -7689,7 +9928,7 @@
       <c r="AE200" s="1"/>
       <c r="AF200" s="1"/>
     </row>
-    <row r="201" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>200</v>
       </c>
@@ -7724,7 +9963,7 @@
       <c r="AE201" s="1"/>
       <c r="AF201" s="1"/>
     </row>
-    <row r="202" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>201</v>
       </c>
@@ -7759,7 +9998,7 @@
       <c r="AE202" s="1"/>
       <c r="AF202" s="1"/>
     </row>
-    <row r="203" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>202</v>
       </c>
@@ -7794,7 +10033,7 @@
       <c r="AE203" s="1"/>
       <c r="AF203" s="1"/>
     </row>
-    <row r="204" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>203</v>
       </c>
@@ -7829,7 +10068,7 @@
       <c r="AE204" s="1"/>
       <c r="AF204" s="1"/>
     </row>
-    <row r="205" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>204</v>
       </c>
@@ -7864,7 +10103,7 @@
       <c r="AE205" s="1"/>
       <c r="AF205" s="1"/>
     </row>
-    <row r="206" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>205</v>
       </c>
@@ -7899,7 +10138,7 @@
       <c r="AE206" s="1"/>
       <c r="AF206" s="1"/>
     </row>
-    <row r="207" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>206</v>
       </c>
@@ -7934,7 +10173,7 @@
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
     </row>
-    <row r="208" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>207</v>
       </c>
@@ -7969,7 +10208,7 @@
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
     </row>
-    <row r="209" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>208</v>
       </c>
@@ -8004,7 +10243,7 @@
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
     </row>
-    <row r="210" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>209</v>
       </c>
@@ -8039,7 +10278,7 @@
       <c r="AE210" s="1"/>
       <c r="AF210" s="1"/>
     </row>
-    <row r="211" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>210</v>
       </c>
@@ -8074,7 +10313,7 @@
       <c r="AE211" s="1"/>
       <c r="AF211" s="1"/>
     </row>
-    <row r="212" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>211</v>
       </c>
@@ -8109,7 +10348,7 @@
       <c r="AE212" s="1"/>
       <c r="AF212" s="1"/>
     </row>
-    <row r="213" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>212</v>
       </c>
@@ -8144,7 +10383,7 @@
       <c r="AE213" s="1"/>
       <c r="AF213" s="1"/>
     </row>
-    <row r="214" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>213</v>
       </c>
@@ -8179,7 +10418,7 @@
       <c r="AE214" s="1"/>
       <c r="AF214" s="1"/>
     </row>
-    <row r="215" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>214</v>
       </c>
@@ -8214,7 +10453,7 @@
       <c r="AE215" s="1"/>
       <c r="AF215" s="1"/>
     </row>
-    <row r="216" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>215</v>
       </c>
@@ -8249,7 +10488,7 @@
       <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
     </row>
-    <row r="217" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>216</v>
       </c>
@@ -8284,7 +10523,7 @@
       <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
     </row>
-    <row r="218" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>217</v>
       </c>
@@ -8319,7 +10558,7 @@
       <c r="AE218" s="1"/>
       <c r="AF218" s="1"/>
     </row>
-    <row r="219" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>218</v>
       </c>
@@ -8354,7 +10593,7 @@
       <c r="AE219" s="1"/>
       <c r="AF219" s="1"/>
     </row>
-    <row r="220" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>219</v>
       </c>
@@ -8389,7 +10628,7 @@
       <c r="AE220" s="1"/>
       <c r="AF220" s="1"/>
     </row>
-    <row r="221" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>220</v>
       </c>
@@ -8424,7 +10663,7 @@
       <c r="AE221" s="1"/>
       <c r="AF221" s="1"/>
     </row>
-    <row r="222" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>221</v>
       </c>
@@ -8459,7 +10698,7 @@
       <c r="AE222" s="1"/>
       <c r="AF222" s="1"/>
     </row>
-    <row r="223" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>222</v>
       </c>
@@ -8494,7 +10733,7 @@
       <c r="AE223" s="1"/>
       <c r="AF223" s="1"/>
     </row>
-    <row r="224" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>223</v>
       </c>
@@ -8529,7 +10768,7 @@
       <c r="AE224" s="1"/>
       <c r="AF224" s="1"/>
     </row>
-    <row r="225" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>224</v>
       </c>
@@ -8564,7 +10803,7 @@
       <c r="AE225" s="1"/>
       <c r="AF225" s="1"/>
     </row>
-    <row r="226" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>225</v>
       </c>
@@ -8599,7 +10838,7 @@
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
     </row>
-    <row r="227" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>226</v>
       </c>
@@ -8634,7 +10873,7 @@
       <c r="AE227" s="1"/>
       <c r="AF227" s="1"/>
     </row>
-    <row r="228" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>227</v>
       </c>
@@ -8669,7 +10908,7 @@
       <c r="AE228" s="1"/>
       <c r="AF228" s="1"/>
     </row>
-    <row r="229" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>228</v>
       </c>
@@ -8704,7 +10943,7 @@
       <c r="AE229" s="1"/>
       <c r="AF229" s="1"/>
     </row>
-    <row r="230" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>229</v>
       </c>
@@ -8739,7 +10978,7 @@
       <c r="AE230" s="1"/>
       <c r="AF230" s="1"/>
     </row>
-    <row r="231" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>230</v>
       </c>
@@ -8774,7 +11013,7 @@
       <c r="AE231" s="1"/>
       <c r="AF231" s="1"/>
     </row>
-    <row r="232" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>231</v>
       </c>
@@ -8809,7 +11048,7 @@
       <c r="AE232" s="1"/>
       <c r="AF232" s="1"/>
     </row>
-    <row r="233" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3">
         <v>232</v>
       </c>
@@ -8844,7 +11083,7 @@
       <c r="AE233" s="1"/>
       <c r="AF233" s="1"/>
     </row>
-    <row r="234" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>233</v>
       </c>
@@ -8879,7 +11118,7 @@
       <c r="AE234" s="1"/>
       <c r="AF234" s="1"/>
     </row>
-    <row r="235" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3">
         <v>234</v>
       </c>
@@ -8914,7 +11153,7 @@
       <c r="AE235" s="1"/>
       <c r="AF235" s="1"/>
     </row>
-    <row r="236" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3">
         <v>235</v>
       </c>
@@ -8949,7 +11188,7 @@
       <c r="AE236" s="1"/>
       <c r="AF236" s="1"/>
     </row>
-    <row r="237" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>236</v>
       </c>
@@ -8984,7 +11223,7 @@
       <c r="AE237" s="1"/>
       <c r="AF237" s="1"/>
     </row>
-    <row r="238" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3">
         <v>237</v>
       </c>
@@ -9019,7 +11258,7 @@
       <c r="AE238" s="1"/>
       <c r="AF238" s="1"/>
     </row>
-    <row r="239" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <v>238</v>
       </c>
@@ -9054,7 +11293,7 @@
       <c r="AE239" s="1"/>
       <c r="AF239" s="1"/>
     </row>
-    <row r="240" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
         <v>239</v>
       </c>
@@ -9089,7 +11328,7 @@
       <c r="AE240" s="1"/>
       <c r="AF240" s="1"/>
     </row>
-    <row r="241" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3">
         <v>240</v>
       </c>
@@ -9124,7 +11363,7 @@
       <c r="AE241" s="1"/>
       <c r="AF241" s="1"/>
     </row>
-    <row r="242" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <v>241</v>
       </c>
@@ -9159,7 +11398,7 @@
       <c r="AE242" s="1"/>
       <c r="AF242" s="1"/>
     </row>
-    <row r="243" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <v>242</v>
       </c>
@@ -9194,7 +11433,7 @@
       <c r="AE243" s="1"/>
       <c r="AF243" s="1"/>
     </row>
-    <row r="244" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3">
         <v>243</v>
       </c>
@@ -9229,7 +11468,7 @@
       <c r="AE244" s="1"/>
       <c r="AF244" s="1"/>
     </row>
-    <row r="245" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3">
         <v>244</v>
       </c>
@@ -9264,7 +11503,7 @@
       <c r="AE245" s="1"/>
       <c r="AF245" s="1"/>
     </row>
-    <row r="246" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <v>245</v>
       </c>
@@ -9299,7 +11538,7 @@
       <c r="AE246" s="1"/>
       <c r="AF246" s="1"/>
     </row>
-    <row r="247" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <v>246</v>
       </c>
@@ -9334,7 +11573,7 @@
       <c r="AE247" s="1"/>
       <c r="AF247" s="1"/>
     </row>
-    <row r="248" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
         <v>247</v>
       </c>
@@ -9369,7 +11608,7 @@
       <c r="AE248" s="1"/>
       <c r="AF248" s="1"/>
     </row>
-    <row r="249" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
         <v>248</v>
       </c>
@@ -9404,7 +11643,7 @@
       <c r="AE249" s="1"/>
       <c r="AF249" s="1"/>
     </row>
-    <row r="250" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
         <v>249</v>
       </c>
@@ -9439,7 +11678,7 @@
       <c r="AE250" s="1"/>
       <c r="AF250" s="1"/>
     </row>
-    <row r="251" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
         <v>250</v>
       </c>
@@ -9474,7 +11713,7 @@
       <c r="AE251" s="1"/>
       <c r="AF251" s="1"/>
     </row>
-    <row r="252" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3">
         <v>251</v>
       </c>
@@ -9509,7 +11748,7 @@
       <c r="AE252" s="1"/>
       <c r="AF252" s="1"/>
     </row>
-    <row r="253" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3">
         <v>252</v>
       </c>
@@ -9544,7 +11783,7 @@
       <c r="AE253" s="1"/>
       <c r="AF253" s="1"/>
     </row>
-    <row r="254" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3">
         <v>253</v>
       </c>
@@ -9579,7 +11818,7 @@
       <c r="AE254" s="1"/>
       <c r="AF254" s="1"/>
     </row>
-    <row r="255" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
         <v>254</v>
       </c>
@@ -9614,7 +11853,7 @@
       <c r="AE255" s="1"/>
       <c r="AF255" s="1"/>
     </row>
-    <row r="256" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
         <v>255</v>
       </c>
@@ -9649,7 +11888,7 @@
       <c r="AE256" s="1"/>
       <c r="AF256" s="1"/>
     </row>
-    <row r="257" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
         <v>256</v>
       </c>
@@ -9684,7 +11923,7 @@
       <c r="AE257" s="1"/>
       <c r="AF257" s="1"/>
     </row>
-    <row r="258" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3">
         <v>257</v>
       </c>
@@ -9719,7 +11958,7 @@
       <c r="AE258" s="1"/>
       <c r="AF258" s="1"/>
     </row>
-    <row r="259" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3">
         <v>258</v>
       </c>
@@ -9754,7 +11993,7 @@
       <c r="AE259" s="1"/>
       <c r="AF259" s="1"/>
     </row>
-    <row r="260" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3">
         <v>259</v>
       </c>
@@ -9789,7 +12028,7 @@
       <c r="AE260" s="1"/>
       <c r="AF260" s="1"/>
     </row>
-    <row r="261" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
         <v>260</v>
       </c>
@@ -9824,7 +12063,7 @@
       <c r="AE261" s="1"/>
       <c r="AF261" s="1"/>
     </row>
-    <row r="262" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
         <v>261</v>
       </c>
@@ -9859,7 +12098,7 @@
       <c r="AE262" s="1"/>
       <c r="AF262" s="1"/>
     </row>
-    <row r="263" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <v>262</v>
       </c>
@@ -9894,7 +12133,7 @@
       <c r="AE263" s="1"/>
       <c r="AF263" s="1"/>
     </row>
-    <row r="264" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
         <v>263</v>
       </c>
@@ -9929,7 +12168,7 @@
       <c r="AE264" s="1"/>
       <c r="AF264" s="1"/>
     </row>
-    <row r="265" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
         <v>264</v>
       </c>
@@ -9964,7 +12203,7 @@
       <c r="AE265" s="1"/>
       <c r="AF265" s="1"/>
     </row>
-    <row r="266" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
         <v>265</v>
       </c>
@@ -9999,7 +12238,7 @@
       <c r="AE266" s="1"/>
       <c r="AF266" s="1"/>
     </row>
-    <row r="267" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
         <v>266</v>
       </c>
@@ -10034,7 +12273,7 @@
       <c r="AE267" s="1"/>
       <c r="AF267" s="1"/>
     </row>
-    <row r="268" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3">
         <v>267</v>
       </c>
@@ -10069,7 +12308,7 @@
       <c r="AE268" s="1"/>
       <c r="AF268" s="1"/>
     </row>
-    <row r="269" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3">
         <v>268</v>
       </c>
@@ -10104,7 +12343,7 @@
       <c r="AE269" s="1"/>
       <c r="AF269" s="1"/>
     </row>
-    <row r="270" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3">
         <v>269</v>
       </c>
@@ -10139,7 +12378,7 @@
       <c r="AE270" s="1"/>
       <c r="AF270" s="1"/>
     </row>
-    <row r="271" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3">
         <v>270</v>
       </c>
@@ -10174,7 +12413,7 @@
       <c r="AE271" s="1"/>
       <c r="AF271" s="1"/>
     </row>
-    <row r="272" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3">
         <v>271</v>
       </c>
@@ -10209,7 +12448,7 @@
       <c r="AE272" s="1"/>
       <c r="AF272" s="1"/>
     </row>
-    <row r="273" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3">
         <v>272</v>
       </c>
@@ -10244,7 +12483,7 @@
       <c r="AE273" s="1"/>
       <c r="AF273" s="1"/>
     </row>
-    <row r="274" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
         <v>273</v>
       </c>
@@ -10279,7 +12518,7 @@
       <c r="AE274" s="1"/>
       <c r="AF274" s="1"/>
     </row>
-    <row r="275" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
         <v>274</v>
       </c>
@@ -10314,7 +12553,7 @@
       <c r="AE275" s="1"/>
       <c r="AF275" s="1"/>
     </row>
-    <row r="276" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <v>275</v>
       </c>
@@ -10349,7 +12588,7 @@
       <c r="AE276" s="1"/>
       <c r="AF276" s="1"/>
     </row>
-    <row r="277" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <v>276</v>
       </c>
@@ -10384,7 +12623,7 @@
       <c r="AE277" s="1"/>
       <c r="AF277" s="1"/>
     </row>
-    <row r="278" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
         <v>277</v>
       </c>
@@ -10419,7 +12658,7 @@
       <c r="AE278" s="1"/>
       <c r="AF278" s="1"/>
     </row>
-    <row r="279" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
         <v>278</v>
       </c>
@@ -10454,7 +12693,7 @@
       <c r="AE279" s="1"/>
       <c r="AF279" s="1"/>
     </row>
-    <row r="280" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
         <v>279</v>
       </c>
@@ -10489,7 +12728,7 @@
       <c r="AE280" s="1"/>
       <c r="AF280" s="1"/>
     </row>
-    <row r="281" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3">
         <v>280</v>
       </c>
@@ -10524,7 +12763,7 @@
       <c r="AE281" s="1"/>
       <c r="AF281" s="1"/>
     </row>
-    <row r="282" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
         <v>281</v>
       </c>
@@ -10559,7 +12798,7 @@
       <c r="AE282" s="1"/>
       <c r="AF282" s="1"/>
     </row>
-    <row r="283" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3">
         <v>282</v>
       </c>
@@ -10594,7 +12833,7 @@
       <c r="AE283" s="1"/>
       <c r="AF283" s="1"/>
     </row>
-    <row r="284" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3">
         <v>283</v>
       </c>
@@ -10629,7 +12868,7 @@
       <c r="AE284" s="1"/>
       <c r="AF284" s="1"/>
     </row>
-    <row r="285" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3">
         <v>284</v>
       </c>
@@ -10664,7 +12903,7 @@
       <c r="AE285" s="1"/>
       <c r="AF285" s="1"/>
     </row>
-    <row r="286" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3">
         <v>285</v>
       </c>
@@ -10699,7 +12938,7 @@
       <c r="AE286" s="1"/>
       <c r="AF286" s="1"/>
     </row>
-    <row r="287" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3">
         <v>286</v>
       </c>
@@ -10734,7 +12973,7 @@
       <c r="AE287" s="1"/>
       <c r="AF287" s="1"/>
     </row>
-    <row r="288" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3">
         <v>287</v>
       </c>
@@ -10769,7 +13008,7 @@
       <c r="AE288" s="1"/>
       <c r="AF288" s="1"/>
     </row>
-    <row r="289" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3">
         <v>288</v>
       </c>
@@ -10804,7 +13043,7 @@
       <c r="AE289" s="1"/>
       <c r="AF289" s="1"/>
     </row>
-    <row r="290" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3">
         <v>289</v>
       </c>
@@ -10839,7 +13078,7 @@
       <c r="AE290" s="1"/>
       <c r="AF290" s="1"/>
     </row>
-    <row r="291" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3">
         <v>290</v>
       </c>
@@ -10874,7 +13113,7 @@
       <c r="AE291" s="1"/>
       <c r="AF291" s="1"/>
     </row>
-    <row r="292" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3">
         <v>291</v>
       </c>
@@ -10909,7 +13148,7 @@
       <c r="AE292" s="1"/>
       <c r="AF292" s="1"/>
     </row>
-    <row r="293" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3">
         <v>292</v>
       </c>
@@ -10944,7 +13183,7 @@
       <c r="AE293" s="1"/>
       <c r="AF293" s="1"/>
     </row>
-    <row r="294" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3">
         <v>293</v>
       </c>
@@ -10979,7 +13218,7 @@
       <c r="AE294" s="1"/>
       <c r="AF294" s="1"/>
     </row>
-    <row r="295" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3">
         <v>294</v>
       </c>
@@ -11014,7 +13253,7 @@
       <c r="AE295" s="1"/>
       <c r="AF295" s="1"/>
     </row>
-    <row r="296" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3">
         <v>295</v>
       </c>
@@ -11049,7 +13288,7 @@
       <c r="AE296" s="1"/>
       <c r="AF296" s="1"/>
     </row>
-    <row r="297" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3">
         <v>296</v>
       </c>
@@ -11084,7 +13323,7 @@
       <c r="AE297" s="1"/>
       <c r="AF297" s="1"/>
     </row>
-    <row r="298" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3">
         <v>297</v>
       </c>
@@ -11119,7 +13358,7 @@
       <c r="AE298" s="1"/>
       <c r="AF298" s="1"/>
     </row>
-    <row r="299" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
         <v>298</v>
       </c>
@@ -11154,7 +13393,7 @@
       <c r="AE299" s="1"/>
       <c r="AF299" s="1"/>
     </row>
-    <row r="300" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3">
         <v>299</v>
       </c>
@@ -11189,7 +13428,7 @@
       <c r="AE300" s="1"/>
       <c r="AF300" s="1"/>
     </row>
-    <row r="301" spans="2:32" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:32" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="2">
         <v>300</v>
       </c>
@@ -11224,7 +13463,7 @@
       <c r="AE301" s="1"/>
       <c r="AF301" s="1"/>
     </row>
-    <row r="302" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -11257,7 +13496,7 @@
       <c r="AE302" s="1"/>
       <c r="AF302" s="1"/>
     </row>
-    <row r="303" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -11290,7 +13529,7 @@
       <c r="AE303" s="1"/>
       <c r="AF303" s="1"/>
     </row>
-    <row r="304" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -11323,7 +13562,7 @@
       <c r="AE304" s="1"/>
       <c r="AF304" s="1"/>
     </row>
-    <row r="305" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -11356,7 +13595,7 @@
       <c r="AE305" s="1"/>
       <c r="AF305" s="1"/>
     </row>
-    <row r="306" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -11389,7 +13628,7 @@
       <c r="AE306" s="1"/>
       <c r="AF306" s="1"/>
     </row>
-    <row r="307" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -11422,7 +13661,7 @@
       <c r="AE307" s="1"/>
       <c r="AF307" s="1"/>
     </row>
-    <row r="308" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -11455,7 +13694,7 @@
       <c r="AE308" s="1"/>
       <c r="AF308" s="1"/>
     </row>
-    <row r="309" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -11488,7 +13727,7 @@
       <c r="AE309" s="1"/>
       <c r="AF309" s="1"/>
     </row>
-    <row r="310" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -11521,7 +13760,7 @@
       <c r="AE310" s="1"/>
       <c r="AF310" s="1"/>
     </row>
-    <row r="311" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -11554,7 +13793,7 @@
       <c r="AE311" s="1"/>
       <c r="AF311" s="1"/>
     </row>
-    <row r="312" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -11587,7 +13826,7 @@
       <c r="AE312" s="1"/>
       <c r="AF312" s="1"/>
     </row>
-    <row r="313" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -11620,7 +13859,7 @@
       <c r="AE313" s="1"/>
       <c r="AF313" s="1"/>
     </row>
-    <row r="314" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -11653,7 +13892,7 @@
       <c r="AE314" s="1"/>
       <c r="AF314" s="1"/>
     </row>
-    <row r="315" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -11686,7 +13925,7 @@
       <c r="AE315" s="1"/>
       <c r="AF315" s="1"/>
     </row>
-    <row r="316" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -11719,7 +13958,7 @@
       <c r="AE316" s="1"/>
       <c r="AF316" s="1"/>
     </row>
-    <row r="317" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -11752,7 +13991,7 @@
       <c r="AE317" s="1"/>
       <c r="AF317" s="1"/>
     </row>
-    <row r="318" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -11785,7 +14024,7 @@
       <c r="AE318" s="1"/>
       <c r="AF318" s="1"/>
     </row>
-    <row r="319" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -11818,7 +14057,7 @@
       <c r="AE319" s="1"/>
       <c r="AF319" s="1"/>
     </row>
-    <row r="320" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -11851,7 +14090,7 @@
       <c r="AE320" s="1"/>
       <c r="AF320" s="1"/>
     </row>
-    <row r="321" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -11884,7 +14123,7 @@
       <c r="AE321" s="1"/>
       <c r="AF321" s="1"/>
     </row>
-    <row r="322" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -11917,7 +14156,7 @@
       <c r="AE322" s="1"/>
       <c r="AF322" s="1"/>
     </row>
-    <row r="323" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -11950,7 +14189,7 @@
       <c r="AE323" s="1"/>
       <c r="AF323" s="1"/>
     </row>
-    <row r="324" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -11983,7 +14222,7 @@
       <c r="AE324" s="1"/>
       <c r="AF324" s="1"/>
     </row>
-    <row r="325" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -12016,7 +14255,7 @@
       <c r="AE325" s="1"/>
       <c r="AF325" s="1"/>
     </row>
-    <row r="326" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -12049,7 +14288,7 @@
       <c r="AE326" s="1"/>
       <c r="AF326" s="1"/>
     </row>
-    <row r="327" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -12082,7 +14321,7 @@
       <c r="AE327" s="1"/>
       <c r="AF327" s="1"/>
     </row>
-    <row r="328" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -12115,7 +14354,7 @@
       <c r="AE328" s="1"/>
       <c r="AF328" s="1"/>
     </row>
-    <row r="329" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -12148,7 +14387,7 @@
       <c r="AE329" s="1"/>
       <c r="AF329" s="1"/>
     </row>
-    <row r="330" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -12181,7 +14420,7 @@
       <c r="AE330" s="1"/>
       <c r="AF330" s="1"/>
     </row>
-    <row r="331" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -12214,7 +14453,7 @@
       <c r="AE331" s="1"/>
       <c r="AF331" s="1"/>
     </row>
-    <row r="332" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -12247,7 +14486,7 @@
       <c r="AE332" s="1"/>
       <c r="AF332" s="1"/>
     </row>
-    <row r="333" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -12280,7 +14519,7 @@
       <c r="AE333" s="1"/>
       <c r="AF333" s="1"/>
     </row>
-    <row r="334" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -12313,7 +14552,7 @@
       <c r="AE334" s="1"/>
       <c r="AF334" s="1"/>
     </row>
-    <row r="335" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -12346,7 +14585,7 @@
       <c r="AE335" s="1"/>
       <c r="AF335" s="1"/>
     </row>
-    <row r="336" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -12379,7 +14618,7 @@
       <c r="AE336" s="1"/>
       <c r="AF336" s="1"/>
     </row>
-    <row r="337" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -12412,7 +14651,7 @@
       <c r="AE337" s="1"/>
       <c r="AF337" s="1"/>
     </row>
-    <row r="338" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -12445,7 +14684,7 @@
       <c r="AE338" s="1"/>
       <c r="AF338" s="1"/>
     </row>
-    <row r="339" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -12478,7 +14717,7 @@
       <c r="AE339" s="1"/>
       <c r="AF339" s="1"/>
     </row>
-    <row r="340" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -12511,7 +14750,7 @@
       <c r="AE340" s="1"/>
       <c r="AF340" s="1"/>
     </row>
-    <row r="341" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -12544,7 +14783,7 @@
       <c r="AE341" s="1"/>
       <c r="AF341" s="1"/>
     </row>
-    <row r="342" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -12577,7 +14816,7 @@
       <c r="AE342" s="1"/>
       <c r="AF342" s="1"/>
     </row>
-    <row r="343" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -12610,7 +14849,7 @@
       <c r="AE343" s="1"/>
       <c r="AF343" s="1"/>
     </row>
-    <row r="344" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -12643,7 +14882,7 @@
       <c r="AE344" s="1"/>
       <c r="AF344" s="1"/>
     </row>
-    <row r="345" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -12676,7 +14915,7 @@
       <c r="AE345" s="1"/>
       <c r="AF345" s="1"/>
     </row>
-    <row r="346" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -12709,7 +14948,7 @@
       <c r="AE346" s="1"/>
       <c r="AF346" s="1"/>
     </row>
-    <row r="347" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -12742,7 +14981,7 @@
       <c r="AE347" s="1"/>
       <c r="AF347" s="1"/>
     </row>
-    <row r="348" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -12775,7 +15014,7 @@
       <c r="AE348" s="1"/>
       <c r="AF348" s="1"/>
     </row>
-    <row r="349" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -12808,7 +15047,7 @@
       <c r="AE349" s="1"/>
       <c r="AF349" s="1"/>
     </row>
-    <row r="350" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -12841,7 +15080,7 @@
       <c r="AE350" s="1"/>
       <c r="AF350" s="1"/>
     </row>
-    <row r="351" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -12874,7 +15113,7 @@
       <c r="AE351" s="1"/>
       <c r="AF351" s="1"/>
     </row>
-    <row r="352" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -12907,7 +15146,7 @@
       <c r="AE352" s="1"/>
       <c r="AF352" s="1"/>
     </row>
-    <row r="353" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -12940,7 +15179,7 @@
       <c r="AE353" s="1"/>
       <c r="AF353" s="1"/>
     </row>
-    <row r="354" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -12973,7 +15212,7 @@
       <c r="AE354" s="1"/>
       <c r="AF354" s="1"/>
     </row>
-    <row r="355" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -13006,7 +15245,7 @@
       <c r="AE355" s="1"/>
       <c r="AF355" s="1"/>
     </row>
-    <row r="356" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -13039,7 +15278,7 @@
       <c r="AE356" s="1"/>
       <c r="AF356" s="1"/>
     </row>
-    <row r="357" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -13072,7 +15311,7 @@
       <c r="AE357" s="1"/>
       <c r="AF357" s="1"/>
     </row>
-    <row r="358" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -13105,7 +15344,7 @@
       <c r="AE358" s="1"/>
       <c r="AF358" s="1"/>
     </row>
-    <row r="359" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -13138,7 +15377,7 @@
       <c r="AE359" s="1"/>
       <c r="AF359" s="1"/>
     </row>
-    <row r="360" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -13171,7 +15410,7 @@
       <c r="AE360" s="1"/>
       <c r="AF360" s="1"/>
     </row>
-    <row r="361" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -13204,7 +15443,7 @@
       <c r="AE361" s="1"/>
       <c r="AF361" s="1"/>
     </row>
-    <row r="362" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -13237,7 +15476,7 @@
       <c r="AE362" s="1"/>
       <c r="AF362" s="1"/>
     </row>
-    <row r="363" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -13270,7 +15509,7 @@
       <c r="AE363" s="1"/>
       <c r="AF363" s="1"/>
     </row>
-    <row r="364" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -13303,7 +15542,7 @@
       <c r="AE364" s="1"/>
       <c r="AF364" s="1"/>
     </row>
-    <row r="365" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -13336,7 +15575,7 @@
       <c r="AE365" s="1"/>
       <c r="AF365" s="1"/>
     </row>
-    <row r="366" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -13369,7 +15608,7 @@
       <c r="AE366" s="1"/>
       <c r="AF366" s="1"/>
     </row>
-    <row r="367" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -13402,7 +15641,7 @@
       <c r="AE367" s="1"/>
       <c r="AF367" s="1"/>
     </row>
-    <row r="368" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -13435,7 +15674,7 @@
       <c r="AE368" s="1"/>
       <c r="AF368" s="1"/>
     </row>
-    <row r="369" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -13468,7 +15707,7 @@
       <c r="AE369" s="1"/>
       <c r="AF369" s="1"/>
     </row>
-    <row r="370" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -13501,7 +15740,7 @@
       <c r="AE370" s="1"/>
       <c r="AF370" s="1"/>
     </row>
-    <row r="371" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -13534,7 +15773,7 @@
       <c r="AE371" s="1"/>
       <c r="AF371" s="1"/>
     </row>
-    <row r="372" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -13567,7 +15806,7 @@
       <c r="AE372" s="1"/>
       <c r="AF372" s="1"/>
     </row>
-    <row r="373" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -13600,7 +15839,7 @@
       <c r="AE373" s="1"/>
       <c r="AF373" s="1"/>
     </row>
-    <row r="374" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -13633,7 +15872,7 @@
       <c r="AE374" s="1"/>
       <c r="AF374" s="1"/>
     </row>
-    <row r="375" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -13666,7 +15905,7 @@
       <c r="AE375" s="1"/>
       <c r="AF375" s="1"/>
     </row>
-    <row r="376" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -13699,7 +15938,7 @@
       <c r="AE376" s="1"/>
       <c r="AF376" s="1"/>
     </row>
-    <row r="377" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -13732,7 +15971,7 @@
       <c r="AE377" s="1"/>
       <c r="AF377" s="1"/>
     </row>
-    <row r="378" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -13765,7 +16004,7 @@
       <c r="AE378" s="1"/>
       <c r="AF378" s="1"/>
     </row>
-    <row r="379" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -13798,7 +16037,7 @@
       <c r="AE379" s="1"/>
       <c r="AF379" s="1"/>
     </row>
-    <row r="380" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -13831,7 +16070,7 @@
       <c r="AE380" s="1"/>
       <c r="AF380" s="1"/>
     </row>
-    <row r="381" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -13864,7 +16103,7 @@
       <c r="AE381" s="1"/>
       <c r="AF381" s="1"/>
     </row>
-    <row r="382" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -13897,7 +16136,7 @@
       <c r="AE382" s="1"/>
       <c r="AF382" s="1"/>
     </row>
-    <row r="383" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -13930,7 +16169,7 @@
       <c r="AE383" s="1"/>
       <c r="AF383" s="1"/>
     </row>
-    <row r="384" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -13963,7 +16202,7 @@
       <c r="AE384" s="1"/>
       <c r="AF384" s="1"/>
     </row>
-    <row r="385" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -13996,7 +16235,7 @@
       <c r="AE385" s="1"/>
       <c r="AF385" s="1"/>
     </row>
-    <row r="386" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -14029,7 +16268,7 @@
       <c r="AE386" s="1"/>
       <c r="AF386" s="1"/>
     </row>
-    <row r="387" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -14062,7 +16301,7 @@
       <c r="AE387" s="1"/>
       <c r="AF387" s="1"/>
     </row>
-    <row r="388" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -14095,7 +16334,7 @@
       <c r="AE388" s="1"/>
       <c r="AF388" s="1"/>
     </row>
-    <row r="389" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -14128,7 +16367,7 @@
       <c r="AE389" s="1"/>
       <c r="AF389" s="1"/>
     </row>
-    <row r="390" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -14161,7 +16400,7 @@
       <c r="AE390" s="1"/>
       <c r="AF390" s="1"/>
     </row>
-    <row r="391" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -14194,7 +16433,7 @@
       <c r="AE391" s="1"/>
       <c r="AF391" s="1"/>
     </row>
-    <row r="392" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -14227,7 +16466,7 @@
       <c r="AE392" s="1"/>
       <c r="AF392" s="1"/>
     </row>
-    <row r="393" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -14260,7 +16499,7 @@
       <c r="AE393" s="1"/>
       <c r="AF393" s="1"/>
     </row>
-    <row r="394" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -14293,7 +16532,7 @@
       <c r="AE394" s="1"/>
       <c r="AF394" s="1"/>
     </row>
-    <row r="395" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -14326,7 +16565,7 @@
       <c r="AE395" s="1"/>
       <c r="AF395" s="1"/>
     </row>
-    <row r="396" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -14359,7 +16598,7 @@
       <c r="AE396" s="1"/>
       <c r="AF396" s="1"/>
     </row>
-    <row r="397" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -14392,7 +16631,7 @@
       <c r="AE397" s="1"/>
       <c r="AF397" s="1"/>
     </row>
-    <row r="398" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -14425,7 +16664,7 @@
       <c r="AE398" s="1"/>
       <c r="AF398" s="1"/>
     </row>
-    <row r="399" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -14458,7 +16697,7 @@
       <c r="AE399" s="1"/>
       <c r="AF399" s="1"/>
     </row>
-    <row r="400" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -14491,7 +16730,7 @@
       <c r="AE400" s="1"/>
       <c r="AF400" s="1"/>
     </row>
-    <row r="401" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -14524,7 +16763,7 @@
       <c r="AE401" s="1"/>
       <c r="AF401" s="1"/>
     </row>
-    <row r="402" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -14557,7 +16796,7 @@
       <c r="AE402" s="1"/>
       <c r="AF402" s="1"/>
     </row>
-    <row r="403" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -14590,7 +16829,7 @@
       <c r="AE403" s="1"/>
       <c r="AF403" s="1"/>
     </row>
-    <row r="404" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -14623,7 +16862,7 @@
       <c r="AE404" s="1"/>
       <c r="AF404" s="1"/>
     </row>
-    <row r="405" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -14656,7 +16895,7 @@
       <c r="AE405" s="1"/>
       <c r="AF405" s="1"/>
     </row>
-    <row r="406" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -14689,7 +16928,7 @@
       <c r="AE406" s="1"/>
       <c r="AF406" s="1"/>
     </row>
-    <row r="407" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -14722,7 +16961,7 @@
       <c r="AE407" s="1"/>
       <c r="AF407" s="1"/>
     </row>
-    <row r="408" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -14755,7 +16994,7 @@
       <c r="AE408" s="1"/>
       <c r="AF408" s="1"/>
     </row>
-    <row r="409" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -14788,7 +17027,7 @@
       <c r="AE409" s="1"/>
       <c r="AF409" s="1"/>
     </row>
-    <row r="410" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -14821,7 +17060,7 @@
       <c r="AE410" s="1"/>
       <c r="AF410" s="1"/>
     </row>
-    <row r="411" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -14854,7 +17093,7 @@
       <c r="AE411" s="1"/>
       <c r="AF411" s="1"/>
     </row>
-    <row r="412" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -14887,7 +17126,7 @@
       <c r="AE412" s="1"/>
       <c r="AF412" s="1"/>
     </row>
-    <row r="413" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -14920,7 +17159,7 @@
       <c r="AE413" s="1"/>
       <c r="AF413" s="1"/>
     </row>
-    <row r="414" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -14953,7 +17192,7 @@
       <c r="AE414" s="1"/>
       <c r="AF414" s="1"/>
     </row>
-    <row r="415" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -14986,7 +17225,7 @@
       <c r="AE415" s="1"/>
       <c r="AF415" s="1"/>
     </row>
-    <row r="416" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -15019,7 +17258,7 @@
       <c r="AE416" s="1"/>
       <c r="AF416" s="1"/>
     </row>
-    <row r="417" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -15052,7 +17291,7 @@
       <c r="AE417" s="1"/>
       <c r="AF417" s="1"/>
     </row>
-    <row r="418" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -15085,7 +17324,7 @@
       <c r="AE418" s="1"/>
       <c r="AF418" s="1"/>
     </row>
-    <row r="419" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -15118,7 +17357,7 @@
       <c r="AE419" s="1"/>
       <c r="AF419" s="1"/>
     </row>
-    <row r="420" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -15151,7 +17390,7 @@
       <c r="AE420" s="1"/>
       <c r="AF420" s="1"/>
     </row>
-    <row r="421" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -15184,7 +17423,7 @@
       <c r="AE421" s="1"/>
       <c r="AF421" s="1"/>
     </row>
-    <row r="422" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -15217,7 +17456,7 @@
       <c r="AE422" s="1"/>
       <c r="AF422" s="1"/>
     </row>
-    <row r="423" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -15250,7 +17489,7 @@
       <c r="AE423" s="1"/>
       <c r="AF423" s="1"/>
     </row>
-    <row r="424" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -15283,7 +17522,7 @@
       <c r="AE424" s="1"/>
       <c r="AF424" s="1"/>
     </row>
-    <row r="425" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -15316,7 +17555,7 @@
       <c r="AE425" s="1"/>
       <c r="AF425" s="1"/>
     </row>
-    <row r="426" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -15349,7 +17588,7 @@
       <c r="AE426" s="1"/>
       <c r="AF426" s="1"/>
     </row>
-    <row r="427" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -15382,7 +17621,7 @@
       <c r="AE427" s="1"/>
       <c r="AF427" s="1"/>
     </row>
-    <row r="428" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -15415,7 +17654,7 @@
       <c r="AE428" s="1"/>
       <c r="AF428" s="1"/>
     </row>
-    <row r="429" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -15448,7 +17687,7 @@
       <c r="AE429" s="1"/>
       <c r="AF429" s="1"/>
     </row>
-    <row r="430" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -15481,7 +17720,7 @@
       <c r="AE430" s="1"/>
       <c r="AF430" s="1"/>
     </row>
-    <row r="431" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -15514,7 +17753,7 @@
       <c r="AE431" s="1"/>
       <c r="AF431" s="1"/>
     </row>
-    <row r="432" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -15547,7 +17786,7 @@
       <c r="AE432" s="1"/>
       <c r="AF432" s="1"/>
     </row>
-    <row r="433" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -15580,7 +17819,7 @@
       <c r="AE433" s="1"/>
       <c r="AF433" s="1"/>
     </row>
-    <row r="434" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -15613,7 +17852,7 @@
       <c r="AE434" s="1"/>
       <c r="AF434" s="1"/>
     </row>
-    <row r="435" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -15646,7 +17885,7 @@
       <c r="AE435" s="1"/>
       <c r="AF435" s="1"/>
     </row>
-    <row r="436" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -15679,7 +17918,7 @@
       <c r="AE436" s="1"/>
       <c r="AF436" s="1"/>
     </row>
-    <row r="437" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -15712,7 +17951,7 @@
       <c r="AE437" s="1"/>
       <c r="AF437" s="1"/>
     </row>
-    <row r="438" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -15745,7 +17984,7 @@
       <c r="AE438" s="1"/>
       <c r="AF438" s="1"/>
     </row>
-    <row r="439" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -15778,7 +18017,7 @@
       <c r="AE439" s="1"/>
       <c r="AF439" s="1"/>
     </row>
-    <row r="440" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -15811,7 +18050,7 @@
       <c r="AE440" s="1"/>
       <c r="AF440" s="1"/>
     </row>
-    <row r="441" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -15844,7 +18083,7 @@
       <c r="AE441" s="1"/>
       <c r="AF441" s="1"/>
     </row>
-    <row r="442" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -15877,7 +18116,7 @@
       <c r="AE442" s="1"/>
       <c r="AF442" s="1"/>
     </row>
-    <row r="443" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -15910,7 +18149,7 @@
       <c r="AE443" s="1"/>
       <c r="AF443" s="1"/>
     </row>
-    <row r="444" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -15943,7 +18182,7 @@
       <c r="AE444" s="1"/>
       <c r="AF444" s="1"/>
     </row>
-    <row r="445" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -15976,7 +18215,7 @@
       <c r="AE445" s="1"/>
       <c r="AF445" s="1"/>
     </row>
-    <row r="446" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -16009,7 +18248,7 @@
       <c r="AE446" s="1"/>
       <c r="AF446" s="1"/>
     </row>
-    <row r="447" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -16042,7 +18281,7 @@
       <c r="AE447" s="1"/>
       <c r="AF447" s="1"/>
     </row>
-    <row r="448" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -16075,7 +18314,7 @@
       <c r="AE448" s="1"/>
       <c r="AF448" s="1"/>
     </row>
-    <row r="449" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -16108,7 +18347,7 @@
       <c r="AE449" s="1"/>
       <c r="AF449" s="1"/>
     </row>
-    <row r="450" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -16141,7 +18380,7 @@
       <c r="AE450" s="1"/>
       <c r="AF450" s="1"/>
     </row>
-    <row r="451" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -16174,7 +18413,7 @@
       <c r="AE451" s="1"/>
       <c r="AF451" s="1"/>
     </row>
-    <row r="452" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -16207,7 +18446,7 @@
       <c r="AE452" s="1"/>
       <c r="AF452" s="1"/>
     </row>
-    <row r="453" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -16240,7 +18479,7 @@
       <c r="AE453" s="1"/>
       <c r="AF453" s="1"/>
     </row>
-    <row r="454" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -16273,7 +18512,7 @@
       <c r="AE454" s="1"/>
       <c r="AF454" s="1"/>
     </row>
-    <row r="455" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -16306,7 +18545,7 @@
       <c r="AE455" s="1"/>
       <c r="AF455" s="1"/>
     </row>
-    <row r="456" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -16339,7 +18578,7 @@
       <c r="AE456" s="1"/>
       <c r="AF456" s="1"/>
     </row>
-    <row r="457" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -16372,7 +18611,7 @@
       <c r="AE457" s="1"/>
       <c r="AF457" s="1"/>
     </row>
-    <row r="458" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -16405,7 +18644,7 @@
       <c r="AE458" s="1"/>
       <c r="AF458" s="1"/>
     </row>
-    <row r="459" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -16438,7 +18677,7 @@
       <c r="AE459" s="1"/>
       <c r="AF459" s="1"/>
     </row>
-    <row r="460" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -16471,7 +18710,7 @@
       <c r="AE460" s="1"/>
       <c r="AF460" s="1"/>
     </row>
-    <row r="461" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -16504,7 +18743,7 @@
       <c r="AE461" s="1"/>
       <c r="AF461" s="1"/>
     </row>
-    <row r="462" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -16537,7 +18776,7 @@
       <c r="AE462" s="1"/>
       <c r="AF462" s="1"/>
     </row>
-    <row r="463" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -16570,7 +18809,7 @@
       <c r="AE463" s="1"/>
       <c r="AF463" s="1"/>
     </row>
-    <row r="464" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -16603,7 +18842,7 @@
       <c r="AE464" s="1"/>
       <c r="AF464" s="1"/>
     </row>
-    <row r="465" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -16636,7 +18875,7 @@
       <c r="AE465" s="1"/>
       <c r="AF465" s="1"/>
     </row>
-    <row r="466" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -16669,7 +18908,7 @@
       <c r="AE466" s="1"/>
       <c r="AF466" s="1"/>
     </row>
-    <row r="467" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -16702,7 +18941,7 @@
       <c r="AE467" s="1"/>
       <c r="AF467" s="1"/>
     </row>
-    <row r="468" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -16735,7 +18974,7 @@
       <c r="AE468" s="1"/>
       <c r="AF468" s="1"/>
     </row>
-    <row r="469" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -16768,7 +19007,7 @@
       <c r="AE469" s="1"/>
       <c r="AF469" s="1"/>
     </row>
-    <row r="470" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -16801,7 +19040,7 @@
       <c r="AE470" s="1"/>
       <c r="AF470" s="1"/>
     </row>
-    <row r="471" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -16834,7 +19073,7 @@
       <c r="AE471" s="1"/>
       <c r="AF471" s="1"/>
     </row>
-    <row r="472" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -16867,7 +19106,7 @@
       <c r="AE472" s="1"/>
       <c r="AF472" s="1"/>
     </row>
-    <row r="473" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -16900,7 +19139,7 @@
       <c r="AE473" s="1"/>
       <c r="AF473" s="1"/>
     </row>
-    <row r="474" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -16933,7 +19172,7 @@
       <c r="AE474" s="1"/>
       <c r="AF474" s="1"/>
     </row>
-    <row r="475" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -16966,7 +19205,7 @@
       <c r="AE475" s="1"/>
       <c r="AF475" s="1"/>
     </row>
-    <row r="476" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -16999,7 +19238,7 @@
       <c r="AE476" s="1"/>
       <c r="AF476" s="1"/>
     </row>
-    <row r="477" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -17032,7 +19271,7 @@
       <c r="AE477" s="1"/>
       <c r="AF477" s="1"/>
     </row>
-    <row r="478" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -17065,7 +19304,7 @@
       <c r="AE478" s="1"/>
       <c r="AF478" s="1"/>
     </row>
-    <row r="479" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -17098,7 +19337,7 @@
       <c r="AE479" s="1"/>
       <c r="AF479" s="1"/>
     </row>
-    <row r="480" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -17131,7 +19370,7 @@
       <c r="AE480" s="1"/>
       <c r="AF480" s="1"/>
     </row>
-    <row r="481" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -17164,7 +19403,7 @@
       <c r="AE481" s="1"/>
       <c r="AF481" s="1"/>
     </row>
-    <row r="482" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -17197,7 +19436,7 @@
       <c r="AE482" s="1"/>
       <c r="AF482" s="1"/>
     </row>
-    <row r="483" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -17230,7 +19469,7 @@
       <c r="AE483" s="1"/>
       <c r="AF483" s="1"/>
     </row>
-    <row r="484" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -17263,7 +19502,7 @@
       <c r="AE484" s="1"/>
       <c r="AF484" s="1"/>
     </row>
-    <row r="485" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -17296,7 +19535,7 @@
       <c r="AE485" s="1"/>
       <c r="AF485" s="1"/>
     </row>
-    <row r="486" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -17329,7 +19568,7 @@
       <c r="AE486" s="1"/>
       <c r="AF486" s="1"/>
     </row>
-    <row r="487" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -17362,7 +19601,7 @@
       <c r="AE487" s="1"/>
       <c r="AF487" s="1"/>
     </row>
-    <row r="488" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -17395,7 +19634,7 @@
       <c r="AE488" s="1"/>
       <c r="AF488" s="1"/>
     </row>
-    <row r="489" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -17428,7 +19667,7 @@
       <c r="AE489" s="1"/>
       <c r="AF489" s="1"/>
     </row>
-    <row r="490" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -17461,7 +19700,7 @@
       <c r="AE490" s="1"/>
       <c r="AF490" s="1"/>
     </row>
-    <row r="491" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -17494,7 +19733,7 @@
       <c r="AE491" s="1"/>
       <c r="AF491" s="1"/>
     </row>
-    <row r="492" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -17527,7 +19766,7 @@
       <c r="AE492" s="1"/>
       <c r="AF492" s="1"/>
     </row>
-    <row r="493" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -17560,7 +19799,7 @@
       <c r="AE493" s="1"/>
       <c r="AF493" s="1"/>
     </row>
-    <row r="494" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -17593,7 +19832,7 @@
       <c r="AE494" s="1"/>
       <c r="AF494" s="1"/>
     </row>
-    <row r="495" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -17626,7 +19865,7 @@
       <c r="AE495" s="1"/>
       <c r="AF495" s="1"/>
     </row>
-    <row r="496" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -17659,7 +19898,7 @@
       <c r="AE496" s="1"/>
       <c r="AF496" s="1"/>
     </row>
-    <row r="497" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -17692,7 +19931,7 @@
       <c r="AE497" s="1"/>
       <c r="AF497" s="1"/>
     </row>
-    <row r="498" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -17725,7 +19964,7 @@
       <c r="AE498" s="1"/>
       <c r="AF498" s="1"/>
     </row>
-    <row r="499" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -17758,7 +19997,7 @@
       <c r="AE499" s="1"/>
       <c r="AF499" s="1"/>
     </row>
-    <row r="500" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -17791,7 +20030,7 @@
       <c r="AE500" s="1"/>
       <c r="AF500" s="1"/>
     </row>
-    <row r="501" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -17824,7 +20063,7 @@
       <c r="AE501" s="1"/>
       <c r="AF501" s="1"/>
     </row>
-    <row r="502" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -17857,7 +20096,7 @@
       <c r="AE502" s="1"/>
       <c r="AF502" s="1"/>
     </row>
-    <row r="503" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -17890,7 +20129,7 @@
       <c r="AE503" s="1"/>
       <c r="AF503" s="1"/>
     </row>
-    <row r="504" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -17923,7 +20162,7 @@
       <c r="AE504" s="1"/>
       <c r="AF504" s="1"/>
     </row>
-    <row r="505" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -17956,7 +20195,7 @@
       <c r="AE505" s="1"/>
       <c r="AF505" s="1"/>
     </row>
-    <row r="506" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -17989,7 +20228,7 @@
       <c r="AE506" s="1"/>
       <c r="AF506" s="1"/>
     </row>
-    <row r="507" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -18022,7 +20261,7 @@
       <c r="AE507" s="1"/>
       <c r="AF507" s="1"/>
     </row>
-    <row r="508" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -18055,7 +20294,7 @@
       <c r="AE508" s="1"/>
       <c r="AF508" s="1"/>
     </row>
-    <row r="509" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -18088,7 +20327,7 @@
       <c r="AE509" s="1"/>
       <c r="AF509" s="1"/>
     </row>
-    <row r="510" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -18121,7 +20360,7 @@
       <c r="AE510" s="1"/>
       <c r="AF510" s="1"/>
     </row>
-    <row r="511" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -18154,7 +20393,7 @@
       <c r="AE511" s="1"/>
       <c r="AF511" s="1"/>
     </row>
-    <row r="512" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -18187,7 +20426,7 @@
       <c r="AE512" s="1"/>
       <c r="AF512" s="1"/>
     </row>
-    <row r="513" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -18220,7 +20459,7 @@
       <c r="AE513" s="1"/>
       <c r="AF513" s="1"/>
     </row>
-    <row r="514" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -18253,7 +20492,7 @@
       <c r="AE514" s="1"/>
       <c r="AF514" s="1"/>
     </row>
-    <row r="515" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -18286,7 +20525,7 @@
       <c r="AE515" s="1"/>
       <c r="AF515" s="1"/>
     </row>
-    <row r="516" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -18319,7 +20558,7 @@
       <c r="AE516" s="1"/>
       <c r="AF516" s="1"/>
     </row>
-    <row r="517" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -18352,7 +20591,7 @@
       <c r="AE517" s="1"/>
       <c r="AF517" s="1"/>
     </row>
-    <row r="518" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -18385,7 +20624,7 @@
       <c r="AE518" s="1"/>
       <c r="AF518" s="1"/>
     </row>
-    <row r="519" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -18418,7 +20657,7 @@
       <c r="AE519" s="1"/>
       <c r="AF519" s="1"/>
     </row>
-    <row r="520" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -18451,7 +20690,7 @@
       <c r="AE520" s="1"/>
       <c r="AF520" s="1"/>
     </row>
-    <row r="521" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -18484,7 +20723,7 @@
       <c r="AE521" s="1"/>
       <c r="AF521" s="1"/>
     </row>
-    <row r="522" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -18517,7 +20756,7 @@
       <c r="AE522" s="1"/>
       <c r="AF522" s="1"/>
     </row>
-    <row r="523" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -18550,7 +20789,7 @@
       <c r="AE523" s="1"/>
       <c r="AF523" s="1"/>
     </row>
-    <row r="524" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -18583,7 +20822,7 @@
       <c r="AE524" s="1"/>
       <c r="AF524" s="1"/>
     </row>
-    <row r="525" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -18616,7 +20855,7 @@
       <c r="AE525" s="1"/>
       <c r="AF525" s="1"/>
     </row>
-    <row r="526" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -18649,7 +20888,7 @@
       <c r="AE526" s="1"/>
       <c r="AF526" s="1"/>
     </row>
-    <row r="527" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -18682,7 +20921,7 @@
       <c r="AE527" s="1"/>
       <c r="AF527" s="1"/>
     </row>
-    <row r="528" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -18715,7 +20954,7 @@
       <c r="AE528" s="1"/>
       <c r="AF528" s="1"/>
     </row>
-    <row r="529" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -18748,7 +20987,7 @@
       <c r="AE529" s="1"/>
       <c r="AF529" s="1"/>
     </row>
-    <row r="530" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -18781,7 +21020,7 @@
       <c r="AE530" s="1"/>
       <c r="AF530" s="1"/>
     </row>
-    <row r="531" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -18814,7 +21053,7 @@
       <c r="AE531" s="1"/>
       <c r="AF531" s="1"/>
     </row>
-    <row r="532" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -18847,7 +21086,7 @@
       <c r="AE532" s="1"/>
       <c r="AF532" s="1"/>
     </row>
-    <row r="533" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -18880,7 +21119,7 @@
       <c r="AE533" s="1"/>
       <c r="AF533" s="1"/>
     </row>
-    <row r="534" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -18913,7 +21152,7 @@
       <c r="AE534" s="1"/>
       <c r="AF534" s="1"/>
     </row>
-    <row r="535" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -18946,7 +21185,7 @@
       <c r="AE535" s="1"/>
       <c r="AF535" s="1"/>
     </row>
-    <row r="536" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -18979,7 +21218,7 @@
       <c r="AE536" s="1"/>
       <c r="AF536" s="1"/>
     </row>
-    <row r="537" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -19012,7 +21251,7 @@
       <c r="AE537" s="1"/>
       <c r="AF537" s="1"/>
     </row>
-    <row r="538" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -19045,7 +21284,7 @@
       <c r="AE538" s="1"/>
       <c r="AF538" s="1"/>
     </row>
-    <row r="539" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -19078,7 +21317,7 @@
       <c r="AE539" s="1"/>
       <c r="AF539" s="1"/>
     </row>
-    <row r="540" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -19111,7 +21350,7 @@
       <c r="AE540" s="1"/>
       <c r="AF540" s="1"/>
     </row>
-    <row r="541" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -19144,7 +21383,7 @@
       <c r="AE541" s="1"/>
       <c r="AF541" s="1"/>
     </row>
-    <row r="542" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -19177,7 +21416,7 @@
       <c r="AE542" s="1"/>
       <c r="AF542" s="1"/>
     </row>
-    <row r="543" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -19210,7 +21449,7 @@
       <c r="AE543" s="1"/>
       <c r="AF543" s="1"/>
     </row>
-    <row r="544" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -19243,7 +21482,7 @@
       <c r="AE544" s="1"/>
       <c r="AF544" s="1"/>
     </row>
-    <row r="545" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -19276,7 +21515,7 @@
       <c r="AE545" s="1"/>
       <c r="AF545" s="1"/>
     </row>
-    <row r="546" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -19309,7 +21548,7 @@
       <c r="AE546" s="1"/>
       <c r="AF546" s="1"/>
     </row>
-    <row r="547" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -19342,7 +21581,7 @@
       <c r="AE547" s="1"/>
       <c r="AF547" s="1"/>
     </row>
-    <row r="548" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -19375,7 +21614,7 @@
       <c r="AE548" s="1"/>
       <c r="AF548" s="1"/>
     </row>
-    <row r="549" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -19408,7 +21647,7 @@
       <c r="AE549" s="1"/>
       <c r="AF549" s="1"/>
     </row>
-    <row r="550" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -19441,7 +21680,7 @@
       <c r="AE550" s="1"/>
       <c r="AF550" s="1"/>
     </row>
-    <row r="551" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -19474,7 +21713,7 @@
       <c r="AE551" s="1"/>
       <c r="AF551" s="1"/>
     </row>
-    <row r="552" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -19507,7 +21746,7 @@
       <c r="AE552" s="1"/>
       <c r="AF552" s="1"/>
     </row>
-    <row r="553" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -19540,7 +21779,7 @@
       <c r="AE553" s="1"/>
       <c r="AF553" s="1"/>
     </row>
-    <row r="554" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -19573,7 +21812,7 @@
       <c r="AE554" s="1"/>
       <c r="AF554" s="1"/>
     </row>
-    <row r="555" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -19606,7 +21845,7 @@
       <c r="AE555" s="1"/>
       <c r="AF555" s="1"/>
     </row>
-    <row r="556" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -19639,7 +21878,7 @@
       <c r="AE556" s="1"/>
       <c r="AF556" s="1"/>
     </row>
-    <row r="557" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -19672,7 +21911,7 @@
       <c r="AE557" s="1"/>
       <c r="AF557" s="1"/>
     </row>
-    <row r="558" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -19705,7 +21944,7 @@
       <c r="AE558" s="1"/>
       <c r="AF558" s="1"/>
     </row>
-    <row r="559" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -19738,7 +21977,7 @@
       <c r="AE559" s="1"/>
       <c r="AF559" s="1"/>
     </row>
-    <row r="560" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -19771,7 +22010,7 @@
       <c r="AE560" s="1"/>
       <c r="AF560" s="1"/>
     </row>
-    <row r="561" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -19804,7 +22043,7 @@
       <c r="AE561" s="1"/>
       <c r="AF561" s="1"/>
     </row>
-    <row r="562" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -19837,7 +22076,7 @@
       <c r="AE562" s="1"/>
       <c r="AF562" s="1"/>
     </row>
-    <row r="563" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -19870,7 +22109,7 @@
       <c r="AE563" s="1"/>
       <c r="AF563" s="1"/>
     </row>
-    <row r="564" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -19903,7 +22142,7 @@
       <c r="AE564" s="1"/>
       <c r="AF564" s="1"/>
     </row>
-    <row r="565" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -19936,7 +22175,7 @@
       <c r="AE565" s="1"/>
       <c r="AF565" s="1"/>
     </row>
-    <row r="566" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -19969,7 +22208,7 @@
       <c r="AE566" s="1"/>
       <c r="AF566" s="1"/>
     </row>
-    <row r="567" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -20002,7 +22241,7 @@
       <c r="AE567" s="1"/>
       <c r="AF567" s="1"/>
     </row>
-    <row r="568" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -20035,7 +22274,7 @@
       <c r="AE568" s="1"/>
       <c r="AF568" s="1"/>
     </row>
-    <row r="569" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -20068,7 +22307,7 @@
       <c r="AE569" s="1"/>
       <c r="AF569" s="1"/>
     </row>
-    <row r="570" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -20101,7 +22340,7 @@
       <c r="AE570" s="1"/>
       <c r="AF570" s="1"/>
     </row>
-    <row r="571" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -20134,7 +22373,7 @@
       <c r="AE571" s="1"/>
       <c r="AF571" s="1"/>
     </row>
-    <row r="572" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -20167,7 +22406,7 @@
       <c r="AE572" s="1"/>
       <c r="AF572" s="1"/>
     </row>
-    <row r="573" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -20200,7 +22439,7 @@
       <c r="AE573" s="1"/>
       <c r="AF573" s="1"/>
     </row>
-    <row r="574" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -20233,7 +22472,7 @@
       <c r="AE574" s="1"/>
       <c r="AF574" s="1"/>
     </row>
-    <row r="575" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -20266,7 +22505,7 @@
       <c r="AE575" s="1"/>
       <c r="AF575" s="1"/>
     </row>
-    <row r="576" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -20299,7 +22538,7 @@
       <c r="AE576" s="1"/>
       <c r="AF576" s="1"/>
     </row>
-    <row r="577" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -20332,7 +22571,7 @@
       <c r="AE577" s="1"/>
       <c r="AF577" s="1"/>
     </row>
-    <row r="578" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -20365,7 +22604,7 @@
       <c r="AE578" s="1"/>
       <c r="AF578" s="1"/>
     </row>
-    <row r="579" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -20398,7 +22637,7 @@
       <c r="AE579" s="1"/>
       <c r="AF579" s="1"/>
     </row>
-    <row r="580" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -20431,7 +22670,7 @@
       <c r="AE580" s="1"/>
       <c r="AF580" s="1"/>
     </row>
-    <row r="581" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -20464,7 +22703,7 @@
       <c r="AE581" s="1"/>
       <c r="AF581" s="1"/>
     </row>
-    <row r="582" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -20497,7 +22736,7 @@
       <c r="AE582" s="1"/>
       <c r="AF582" s="1"/>
     </row>
-    <row r="583" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -20530,7 +22769,7 @@
       <c r="AE583" s="1"/>
       <c r="AF583" s="1"/>
     </row>
-    <row r="584" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -20563,7 +22802,7 @@
       <c r="AE584" s="1"/>
       <c r="AF584" s="1"/>
     </row>
-    <row r="585" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -20596,7 +22835,7 @@
       <c r="AE585" s="1"/>
       <c r="AF585" s="1"/>
     </row>
-    <row r="586" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -20629,7 +22868,7 @@
       <c r="AE586" s="1"/>
       <c r="AF586" s="1"/>
     </row>
-    <row r="587" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -20662,7 +22901,7 @@
       <c r="AE587" s="1"/>
       <c r="AF587" s="1"/>
     </row>
-    <row r="588" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -20695,7 +22934,7 @@
       <c r="AE588" s="1"/>
       <c r="AF588" s="1"/>
     </row>
-    <row r="589" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -20728,7 +22967,7 @@
       <c r="AE589" s="1"/>
       <c r="AF589" s="1"/>
     </row>
-    <row r="590" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -20761,7 +23000,7 @@
       <c r="AE590" s="1"/>
       <c r="AF590" s="1"/>
     </row>
-    <row r="591" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -20794,7 +23033,7 @@
       <c r="AE591" s="1"/>
       <c r="AF591" s="1"/>
     </row>
-    <row r="592" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -20827,7 +23066,7 @@
       <c r="AE592" s="1"/>
       <c r="AF592" s="1"/>
     </row>
-    <row r="593" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -20860,7 +23099,7 @@
       <c r="AE593" s="1"/>
       <c r="AF593" s="1"/>
     </row>
-    <row r="594" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -20893,7 +23132,7 @@
       <c r="AE594" s="1"/>
       <c r="AF594" s="1"/>
     </row>
-    <row r="595" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -20926,7 +23165,7 @@
       <c r="AE595" s="1"/>
       <c r="AF595" s="1"/>
     </row>
-    <row r="596" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -20959,7 +23198,7 @@
       <c r="AE596" s="1"/>
       <c r="AF596" s="1"/>
     </row>
-    <row r="597" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -20992,7 +23231,7 @@
       <c r="AE597" s="1"/>
       <c r="AF597" s="1"/>
     </row>
-    <row r="598" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -21025,7 +23264,7 @@
       <c r="AE598" s="1"/>
       <c r="AF598" s="1"/>
     </row>
-    <row r="599" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -21058,7 +23297,7 @@
       <c r="AE599" s="1"/>
       <c r="AF599" s="1"/>
     </row>
-    <row r="600" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -21091,7 +23330,7 @@
       <c r="AE600" s="1"/>
       <c r="AF600" s="1"/>
     </row>
-    <row r="601" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -21124,7 +23363,7 @@
       <c r="AE601" s="1"/>
       <c r="AF601" s="1"/>
     </row>
-    <row r="602" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -21157,7 +23396,7 @@
       <c r="AE602" s="1"/>
       <c r="AF602" s="1"/>
     </row>
-    <row r="603" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -21190,7 +23429,7 @@
       <c r="AE603" s="1"/>
       <c r="AF603" s="1"/>
     </row>
-    <row r="604" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -21223,7 +23462,7 @@
       <c r="AE604" s="1"/>
       <c r="AF604" s="1"/>
     </row>
-    <row r="605" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -21256,7 +23495,7 @@
       <c r="AE605" s="1"/>
       <c r="AF605" s="1"/>
     </row>
-    <row r="606" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -21289,7 +23528,7 @@
       <c r="AE606" s="1"/>
       <c r="AF606" s="1"/>
     </row>
-    <row r="607" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -21322,7 +23561,7 @@
       <c r="AE607" s="1"/>
       <c r="AF607" s="1"/>
     </row>
-    <row r="608" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -21355,7 +23594,7 @@
       <c r="AE608" s="1"/>
       <c r="AF608" s="1"/>
     </row>
-    <row r="609" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -21388,7 +23627,7 @@
       <c r="AE609" s="1"/>
       <c r="AF609" s="1"/>
     </row>
-    <row r="610" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -21421,7 +23660,7 @@
       <c r="AE610" s="1"/>
       <c r="AF610" s="1"/>
     </row>
-    <row r="611" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -21454,7 +23693,7 @@
       <c r="AE611" s="1"/>
       <c r="AF611" s="1"/>
     </row>
-    <row r="612" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -21487,7 +23726,7 @@
       <c r="AE612" s="1"/>
       <c r="AF612" s="1"/>
     </row>
-    <row r="613" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -21520,7 +23759,7 @@
       <c r="AE613" s="1"/>
       <c r="AF613" s="1"/>
     </row>
-    <row r="614" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -21553,7 +23792,7 @@
       <c r="AE614" s="1"/>
       <c r="AF614" s="1"/>
     </row>
-    <row r="615" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -21586,7 +23825,7 @@
       <c r="AE615" s="1"/>
       <c r="AF615" s="1"/>
     </row>
-    <row r="616" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -21619,7 +23858,7 @@
       <c r="AE616" s="1"/>
       <c r="AF616" s="1"/>
     </row>
-    <row r="617" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -21652,7 +23891,7 @@
       <c r="AE617" s="1"/>
       <c r="AF617" s="1"/>
     </row>
-    <row r="618" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -21685,7 +23924,7 @@
       <c r="AE618" s="1"/>
       <c r="AF618" s="1"/>
     </row>
-    <row r="619" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -21718,7 +23957,7 @@
       <c r="AE619" s="1"/>
       <c r="AF619" s="1"/>
     </row>
-    <row r="620" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -21751,7 +23990,7 @@
       <c r="AE620" s="1"/>
       <c r="AF620" s="1"/>
     </row>
-    <row r="621" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -21784,7 +24023,7 @@
       <c r="AE621" s="1"/>
       <c r="AF621" s="1"/>
     </row>
-    <row r="622" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -21817,7 +24056,7 @@
       <c r="AE622" s="1"/>
       <c r="AF622" s="1"/>
     </row>
-    <row r="623" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -21850,7 +24089,7 @@
       <c r="AE623" s="1"/>
       <c r="AF623" s="1"/>
     </row>
-    <row r="624" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -21883,7 +24122,7 @@
       <c r="AE624" s="1"/>
       <c r="AF624" s="1"/>
     </row>
-    <row r="625" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -21926,22 +24165,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F1962-E7FA-4F5A-AC4D-0B8FF9408415}">
   <dimension ref="B2:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G3" sqref="B3:G218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -21961,7 +24200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -21975,7 +24214,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -21985,7 +24224,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -21995,7 +24234,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -22004,7 +24243,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -22014,7 +24253,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -22024,7 +24263,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -22034,7 +24273,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -22044,7 +24283,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -22054,7 +24293,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -22064,7 +24303,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -22074,7 +24313,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -22084,7 +24323,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -22094,7 +24333,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -22104,7 +24343,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -22114,7 +24353,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -22124,7 +24363,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -22134,7 +24373,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -22144,7 +24383,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -22154,7 +24393,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -22164,7 +24403,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>21</v>
       </c>
@@ -22174,7 +24413,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -22184,7 +24423,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>23</v>
       </c>
@@ -22194,7 +24433,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>24</v>
       </c>
@@ -22204,7 +24443,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>25</v>
       </c>
@@ -22214,7 +24453,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>26</v>
       </c>
@@ -22224,7 +24463,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>27</v>
       </c>
@@ -22234,7 +24473,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>28</v>
       </c>
@@ -22244,7 +24483,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>29</v>
       </c>
@@ -22254,7 +24493,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>30</v>
       </c>
@@ -22264,7 +24503,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>31</v>
       </c>
@@ -22274,7 +24513,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>32</v>
       </c>
@@ -22284,7 +24523,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>33</v>
       </c>
@@ -22294,7 +24533,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>34</v>
       </c>
@@ -22304,7 +24543,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>35</v>
       </c>
@@ -22314,7 +24553,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>36</v>
       </c>
@@ -22324,7 +24563,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>37</v>
       </c>
@@ -22334,7 +24573,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>38</v>
       </c>
@@ -22344,7 +24583,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>39</v>
       </c>
@@ -22354,7 +24593,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>40</v>
       </c>
@@ -22364,7 +24603,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>41</v>
       </c>
@@ -22374,7 +24613,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>42</v>
       </c>
@@ -22384,7 +24623,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>43</v>
       </c>
@@ -22394,7 +24633,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>44</v>
       </c>
@@ -22404,7 +24643,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>45</v>
       </c>
@@ -22414,7 +24653,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>46</v>
       </c>
@@ -22424,7 +24663,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>47</v>
       </c>
@@ -22434,7 +24673,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>48</v>
       </c>
@@ -22444,7 +24683,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>49</v>
       </c>
@@ -22454,7 +24693,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>50</v>
       </c>
@@ -22464,7 +24703,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>51</v>
       </c>
@@ -22474,7 +24713,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>52</v>
       </c>
@@ -22484,7 +24723,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>53</v>
       </c>
@@ -22494,7 +24733,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>54</v>
       </c>
@@ -22504,7 +24743,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>55</v>
       </c>
@@ -22514,7 +24753,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>56</v>
       </c>
@@ -22524,7 +24763,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>57</v>
       </c>
@@ -22534,7 +24773,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>58</v>
       </c>
@@ -22544,7 +24783,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>59</v>
       </c>
@@ -22554,7 +24793,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>60</v>
       </c>
@@ -22564,7 +24803,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>61</v>
       </c>
@@ -22574,7 +24813,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>62</v>
       </c>
@@ -22584,7 +24823,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>63</v>
       </c>
@@ -22594,7 +24833,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>64</v>
       </c>
@@ -22604,7 +24843,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>65</v>
       </c>
@@ -22614,7 +24853,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>66</v>
       </c>
@@ -22624,7 +24863,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>67</v>
       </c>
@@ -22634,7 +24873,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>68</v>
       </c>
@@ -22644,7 +24883,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>69</v>
       </c>
@@ -22654,7 +24893,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>70</v>
       </c>
@@ -22664,7 +24903,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>71</v>
       </c>
@@ -22674,7 +24913,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>72</v>
       </c>
@@ -22684,7 +24923,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>73</v>
       </c>
@@ -22694,7 +24933,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>74</v>
       </c>
@@ -22704,7 +24943,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>75</v>
       </c>
@@ -22714,7 +24953,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>76</v>
       </c>
@@ -22724,7 +24963,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>77</v>
       </c>
@@ -22734,7 +24973,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>78</v>
       </c>
@@ -22744,7 +24983,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>79</v>
       </c>
@@ -22754,7 +24993,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>80</v>
       </c>
@@ -22764,7 +25003,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>81</v>
       </c>
@@ -22774,7 +25013,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>82</v>
       </c>
@@ -22784,7 +25023,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>83</v>
       </c>
@@ -22794,7 +25033,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>84</v>
       </c>
@@ -22804,7 +25043,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>85</v>
       </c>
@@ -22814,7 +25053,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>86</v>
       </c>
@@ -22824,7 +25063,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>87</v>
       </c>
@@ -22834,7 +25073,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>88</v>
       </c>
@@ -22844,7 +25083,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>89</v>
       </c>
@@ -22854,7 +25093,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>90</v>
       </c>
@@ -22864,7 +25103,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>91</v>
       </c>
@@ -22874,7 +25113,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>92</v>
       </c>
@@ -22884,7 +25123,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>93</v>
       </c>
@@ -22894,7 +25133,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>94</v>
       </c>
@@ -22904,7 +25143,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>95</v>
       </c>
@@ -22914,7 +25153,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>96</v>
       </c>
@@ -22924,7 +25163,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>97</v>
       </c>
@@ -22934,7 +25173,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>98</v>
       </c>
@@ -22944,7 +25183,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>99</v>
       </c>
@@ -22954,7 +25193,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>100</v>
       </c>
@@ -22964,7 +25203,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>101</v>
       </c>
@@ -22974,7 +25213,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>102</v>
       </c>
@@ -22984,7 +25223,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>103</v>
       </c>
@@ -22994,7 +25233,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>104</v>
       </c>
@@ -23004,7 +25243,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>105</v>
       </c>
@@ -23014,7 +25253,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>106</v>
       </c>
@@ -23024,7 +25263,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>107</v>
       </c>
@@ -23034,7 +25273,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>108</v>
       </c>
@@ -23044,7 +25283,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>109</v>
       </c>
@@ -23054,7 +25293,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>110</v>
       </c>
@@ -23064,7 +25303,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>111</v>
       </c>
@@ -23074,7 +25313,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>112</v>
       </c>
@@ -23084,7 +25323,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>113</v>
       </c>
@@ -23094,7 +25333,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>114</v>
       </c>
@@ -23104,7 +25343,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>115</v>
       </c>
@@ -23114,7 +25353,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>116</v>
       </c>
@@ -23124,7 +25363,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>117</v>
       </c>
@@ -23134,7 +25373,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>118</v>
       </c>
@@ -23144,7 +25383,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>119</v>
       </c>
@@ -23154,7 +25393,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>120</v>
       </c>
@@ -23164,7 +25403,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>121</v>
       </c>
@@ -23174,7 +25413,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>122</v>
       </c>
@@ -23184,7 +25423,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>123</v>
       </c>
@@ -23194,7 +25433,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>124</v>
       </c>
@@ -23204,7 +25443,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>125</v>
       </c>
@@ -23214,7 +25453,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>126</v>
       </c>
@@ -23224,7 +25463,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>127</v>
       </c>
@@ -23234,7 +25473,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>128</v>
       </c>
@@ -23244,7 +25483,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>129</v>
       </c>
@@ -23254,7 +25493,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>130</v>
       </c>
@@ -23264,7 +25503,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>131</v>
       </c>
@@ -23274,7 +25513,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>132</v>
       </c>
@@ -23284,7 +25523,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>133</v>
       </c>
@@ -23294,7 +25533,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>134</v>
       </c>
@@ -23304,7 +25543,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>135</v>
       </c>
@@ -23314,7 +25553,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>136</v>
       </c>
@@ -23324,7 +25563,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>137</v>
       </c>
@@ -23334,7 +25573,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>138</v>
       </c>
@@ -23344,7 +25583,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>139</v>
       </c>
@@ -23354,7 +25593,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>140</v>
       </c>
@@ -23364,7 +25603,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>141</v>
       </c>
@@ -23374,7 +25613,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>142</v>
       </c>
@@ -23384,7 +25623,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>143</v>
       </c>
@@ -23394,7 +25633,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>144</v>
       </c>
@@ -23404,7 +25643,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>145</v>
       </c>
@@ -23414,7 +25653,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>146</v>
       </c>
@@ -23424,7 +25663,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>147</v>
       </c>
@@ -23434,7 +25673,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>148</v>
       </c>
@@ -23444,7 +25683,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>149</v>
       </c>
@@ -23454,7 +25693,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>150</v>
       </c>
@@ -23464,7 +25703,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>151</v>
       </c>
@@ -23474,7 +25713,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>152</v>
       </c>
@@ -23484,7 +25723,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>153</v>
       </c>
@@ -23494,7 +25733,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>154</v>
       </c>
@@ -23504,7 +25743,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>155</v>
       </c>
@@ -23514,7 +25753,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>156</v>
       </c>
@@ -23524,7 +25763,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>157</v>
       </c>
@@ -23534,7 +25773,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>158</v>
       </c>
@@ -23544,7 +25783,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>159</v>
       </c>
@@ -23554,7 +25793,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>160</v>
       </c>
@@ -23564,7 +25803,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>161</v>
       </c>
@@ -23574,7 +25813,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>162</v>
       </c>
@@ -23584,7 +25823,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>163</v>
       </c>
@@ -23594,7 +25833,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>164</v>
       </c>
@@ -23604,7 +25843,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>165</v>
       </c>
@@ -23614,7 +25853,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>166</v>
       </c>
@@ -23624,7 +25863,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>167</v>
       </c>
@@ -23634,7 +25873,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>168</v>
       </c>
@@ -23644,7 +25883,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>169</v>
       </c>
@@ -23654,7 +25893,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>170</v>
       </c>
@@ -23664,7 +25903,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>171</v>
       </c>
@@ -23674,7 +25913,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>172</v>
       </c>
@@ -23684,7 +25923,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>173</v>
       </c>
@@ -23694,7 +25933,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>174</v>
       </c>
@@ -23704,7 +25943,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>175</v>
       </c>
@@ -23714,7 +25953,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>176</v>
       </c>
@@ -23724,7 +25963,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>177</v>
       </c>
@@ -23734,7 +25973,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>178</v>
       </c>
@@ -23744,7 +25983,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>179</v>
       </c>
@@ -23754,7 +25993,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>180</v>
       </c>
@@ -23764,7 +26003,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>181</v>
       </c>
@@ -23774,7 +26013,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>182</v>
       </c>
@@ -23784,7 +26023,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>183</v>
       </c>
@@ -23794,7 +26033,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>184</v>
       </c>
@@ -23804,7 +26043,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>185</v>
       </c>
@@ -23814,7 +26053,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>186</v>
       </c>
@@ -23824,7 +26063,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>187</v>
       </c>
@@ -23834,7 +26073,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>188</v>
       </c>
@@ -23844,7 +26083,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>189</v>
       </c>
@@ -23854,7 +26093,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>190</v>
       </c>
@@ -23864,7 +26103,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>191</v>
       </c>
@@ -23874,7 +26113,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>192</v>
       </c>
@@ -23884,7 +26123,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>193</v>
       </c>
@@ -23894,7 +26133,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>194</v>
       </c>
@@ -23904,7 +26143,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>195</v>
       </c>
@@ -23914,7 +26153,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>196</v>
       </c>
@@ -23924,7 +26163,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>197</v>
       </c>
@@ -23934,7 +26173,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>198</v>
       </c>
@@ -23944,7 +26183,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>199</v>
       </c>
@@ -23954,7 +26193,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>200</v>
       </c>
@@ -23964,7 +26203,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>201</v>
       </c>
@@ -23974,7 +26213,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>202</v>
       </c>
@@ -23984,7 +26223,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>203</v>
       </c>
@@ -23994,7 +26233,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>204</v>
       </c>
@@ -24004,7 +26243,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>205</v>
       </c>
@@ -24014,7 +26253,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>206</v>
       </c>
@@ -24024,7 +26263,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>207</v>
       </c>
@@ -24034,7 +26273,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>208</v>
       </c>
@@ -24044,7 +26283,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>209</v>
       </c>
@@ -24054,7 +26293,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>210</v>
       </c>
@@ -24064,7 +26303,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>211</v>
       </c>
@@ -24074,7 +26313,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>212</v>
       </c>
@@ -24084,7 +26323,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>213</v>
       </c>
@@ -24094,7 +26333,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>214</v>
       </c>
@@ -24104,7 +26343,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>215</v>
       </c>
